--- a/BballMVC/_Documentation/Modal Doc.xlsx
+++ b/BballMVC/_Documentation/Modal Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9FAE5-D6A6-45E2-BDB9-5E1E3A581384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD101D3A-C4F1-4385-965F-8EFB903FDA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="555" windowWidth="21600" windowHeight="15000" activeTab="3" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
+    <workbookView xWindow="2610" yWindow="375" windowWidth="25515" windowHeight="15000" activeTab="2" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Compare Rows" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
   <si>
     <t>_AdjustmentsModel.html</t>
   </si>
@@ -384,9 +383,6 @@
     <t>Folder</t>
   </si>
   <si>
-    <t xml:space="preserve"> file:///D:/My%20Documents/wwwroot/Test/TtiPoc/TtiPoc/bin/Release/Publish</t>
-  </si>
-  <si>
     <t>Copied Publish to ttipoc.com in Arvixe</t>
   </si>
   <si>
@@ -748,6 +744,27 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>/wwwroot/Test/TtiPoc/TtiPoc/bin/Release/Publish</t>
+  </si>
+  <si>
+    <t>Click Configure to change Target location</t>
+  </si>
+  <si>
+    <t>Click Publish</t>
+  </si>
+  <si>
+    <t>T:\BballMVC</t>
+  </si>
+  <si>
+    <t>Publish to BballMVCproject</t>
+  </si>
+  <si>
+    <t>Rename BballMVCproject_yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Try Web Deploy for TtiPoc</t>
   </si>
 </sst>
 </file>
@@ -912,6 +929,143 @@
         <a:xfrm>
           <a:off x="1219200" y="2667000"/>
           <a:ext cx="1829055" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>181423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31070519-7489-4D4C-8C5D-03210E1328A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="2857500"/>
+          <a:ext cx="5495925" cy="3038923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3171E-B6EE-4233-96A3-9283B70B940E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="6096000"/>
+          <a:ext cx="3762375" cy="1677296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D768A354-DADE-4498-A43F-E8562FBB5497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="6067425"/>
+          <a:ext cx="4086225" cy="1729680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,46 +1741,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CC6C7-F35F-46FC-AB99-86E54A16A2C9}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>"&lt;li&gt;" &amp; B2 &amp; "&lt;/li&gt;"</f>
+        <v>&lt;li&gt;rt clk Startup proj&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">"&lt;li&gt;" &amp; B3 &amp; "&lt;/li&gt;"</f>
+        <v>&lt;li&gt;Publish&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;Start&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;Folder&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;/wwwroot/Test/TtiPoc/TtiPoc/bin/Release/Publish&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;Copied Publish to ttipoc.com in Arvixe&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1634,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5349101D-2782-49C6-91FF-41BEF8C11B61}">
   <dimension ref="A1:DO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1646,348 +1858,348 @@
   <sheetData>
     <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="R1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T1" t="s">
-        <v>173</v>
-      </c>
-      <c r="U1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W1" t="s">
-        <v>176</v>
-      </c>
-      <c r="X1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG1" t="s">
         <v>156</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>150</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>151</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>152</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>153</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>154</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>155</v>
-      </c>
-      <c r="DF1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="5">
         <v>44248</v>
@@ -1996,10 +2208,10 @@
         <v>535</v>
       </c>
       <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>187</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -2104,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ2">
         <v>114.188031098511</v>
@@ -2125,19 +2337,19 @@
         <v>233</v>
       </c>
       <c r="AW2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY2">
         <v>4.6694591533374101</v>
       </c>
       <c r="AZ2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB2">
         <v>0.5</v>
@@ -2302,27 +2514,27 @@
         <v>40.376964853746401</v>
       </c>
       <c r="DD2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DE2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DF2" s="8">
         <v>44248.667196215276</v>
       </c>
       <c r="DG2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="5">
         <v>44248</v>
@@ -2331,10 +2543,10 @@
         <v>535</v>
       </c>
       <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
         <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>187</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2439,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ3">
         <v>117.79667505539101</v>
@@ -2460,19 +2672,19 @@
         <v>233</v>
       </c>
       <c r="AW3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AX3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY3">
         <v>6.8116055106043003</v>
       </c>
       <c r="AZ3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB3">
         <v>0.5</v>
@@ -2637,21 +2849,21 @@
         <v>37.022812212670999</v>
       </c>
       <c r="DD3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DE3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DF3" s="8">
         <v>44248.642897337966</v>
       </c>
       <c r="DG3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:119" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>IF(C2&lt;&gt;C3,"Diff","")</f>

--- a/BballMVC/_Documentation/Modal Doc.xlsx
+++ b/BballMVC/_Documentation/Modal Doc.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D0F3D7-6994-4046-9A96-07EB8B121BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F131D3D3-BC34-415D-A8A1-C7ED0CD186BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1695" windowWidth="23295" windowHeight="11835" activeTab="5" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" activeTab="7" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Modal 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modal 2" sheetId="2" r:id="rId2"/>
     <sheet name="Publish" sheetId="3" r:id="rId3"/>
     <sheet name="TS Doc" sheetId="6" r:id="rId4"/>
     <sheet name="Compare Rows" sheetId="5" r:id="rId5"/>
     <sheet name="DailySummary" sheetId="7" r:id="rId6"/>
+    <sheet name="xlsB" sheetId="8" r:id="rId7"/>
+    <sheet name="Pace" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="div">Pace!$M$1</definedName>
     <definedName name="header">DailySummary!$K$1:$AS$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="180">
   <si>
     <t>_AdjustmentsModel.html</t>
   </si>
@@ -746,6 +749,45 @@
 Games
 Back</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>DIFF %</t>
+  </si>
+  <si>
+    <t>Get Last 7</t>
+  </si>
+  <si>
+    <t>Replace Klunkers w n-1</t>
+  </si>
+  <si>
+    <t>If Klunkers &gt; 1 EXIT</t>
+  </si>
+  <si>
+    <t>Col Value ==&gt;</t>
+  </si>
+  <si>
+    <t>Sum Value Diffs * Col Values</t>
+  </si>
+  <si>
+    <t>adjed</t>
+  </si>
+  <si>
+    <t>Avg Dev</t>
+  </si>
+  <si>
+    <t>From T-Sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -754,7 +796,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,8 +864,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +898,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -872,11 +928,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -923,6 +990,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,6 +1258,55 @@
         <a:xfrm>
           <a:off x="3255817" y="1151659"/>
           <a:ext cx="7471325" cy="2685991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258147</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69524CB5-E6E7-4FFA-9BD8-1DBC1645B5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6963747" cy="1505160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,7 +2976,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:AS1"/>
     </sheetView>
   </sheetViews>
@@ -7187,4 +7330,972 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910DA3AF-4FAC-40F6-A674-BA5FA84A8F8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75EF2B-1769-4EC6-8EE7-0A55703BF711}">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="27">
+        <v>5</v>
+      </c>
+      <c r="E1" s="27">
+        <v>6</v>
+      </c>
+      <c r="F1" s="27">
+        <v>7</v>
+      </c>
+      <c r="G1" s="27">
+        <v>8</v>
+      </c>
+      <c r="H1" s="27">
+        <v>9</v>
+      </c>
+      <c r="I1" s="27">
+        <v>10</v>
+      </c>
+      <c r="J1" s="27">
+        <v>11</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="29">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>3</v>
+      </c>
+      <c r="R1">
+        <v>4</v>
+      </c>
+      <c r="S1">
+        <v>5</v>
+      </c>
+      <c r="T1">
+        <v>6</v>
+      </c>
+      <c r="U1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="23">
+        <f>AVERAGE(D2:J2)</f>
+        <v>173.85714285714286</v>
+      </c>
+      <c r="C2" s="23">
+        <f>AVEDEV(D2:J2)</f>
+        <v>4.1632653061224483</v>
+      </c>
+      <c r="D2" s="24">
+        <v>170</v>
+      </c>
+      <c r="E2" s="24">
+        <v>165</v>
+      </c>
+      <c r="F2" s="24">
+        <v>175</v>
+      </c>
+      <c r="G2" s="24">
+        <v>180</v>
+      </c>
+      <c r="H2" s="34">
+        <v>180</v>
+      </c>
+      <c r="I2" s="24">
+        <v>175</v>
+      </c>
+      <c r="J2" s="24">
+        <v>172</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="28">
+        <f>ABS(1 - (O2/L2))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O2" s="31">
+        <f>SUM(P2:U2) / div</f>
+        <v>-0.1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P4" si="0">(E2-D2) * D$1</f>
+        <v>-25</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q4" si="1">(F2-E2) * E$1</f>
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R4" si="2">(G2-F2) * F$1</f>
+        <v>35</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S9" si="3">(H2-G2) * G$1</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T9" si="4">(I2-H2) * H$1</f>
+        <v>-45</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U9" si="5">(J2-I2) * I$1</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="23">
+        <f t="shared" ref="B3:B11" si="6">AVERAGE(D3:J3)</f>
+        <v>172</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C11" si="7">AVEDEV(D3:J3)</f>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="D3" s="24">
+        <v>175</v>
+      </c>
+      <c r="E3" s="24">
+        <v>174</v>
+      </c>
+      <c r="F3" s="24">
+        <v>172</v>
+      </c>
+      <c r="G3" s="24">
+        <v>170</v>
+      </c>
+      <c r="H3" s="24">
+        <v>175</v>
+      </c>
+      <c r="I3" s="24">
+        <v>168</v>
+      </c>
+      <c r="J3" s="24">
+        <v>170</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="33">
+        <v>-0.5</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="28">
+        <f t="shared" ref="N3:N9" si="8">ABS(1 - (O3/L3))</f>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="O3" s="31">
+        <f>SUM(P3:U3) / div</f>
+        <v>-0.68</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="4"/>
+        <v>-63</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
+        <f t="shared" si="6"/>
+        <v>176.85714285714286</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" si="7"/>
+        <v>3.3061224489795911</v>
+      </c>
+      <c r="D4" s="24">
+        <v>170</v>
+      </c>
+      <c r="E4" s="24">
+        <v>173</v>
+      </c>
+      <c r="F4" s="24">
+        <v>176</v>
+      </c>
+      <c r="G4" s="24">
+        <v>180</v>
+      </c>
+      <c r="H4" s="24">
+        <v>177</v>
+      </c>
+      <c r="I4" s="24">
+        <v>180</v>
+      </c>
+      <c r="J4" s="24">
+        <v>182</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="33">
+        <v>2</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="28">
+        <f t="shared" si="8"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="O4" s="31">
+        <f>SUM(P4:U4) / div</f>
+        <v>1.68</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>-24</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <f t="shared" si="6"/>
+        <v>173.14285714285714</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="7"/>
+        <v>2.6938775510204089</v>
+      </c>
+      <c r="D5" s="24">
+        <v>177</v>
+      </c>
+      <c r="E5" s="24">
+        <v>176</v>
+      </c>
+      <c r="F5" s="24">
+        <v>174</v>
+      </c>
+      <c r="G5" s="24">
+        <v>172</v>
+      </c>
+      <c r="H5" s="24">
+        <v>170</v>
+      </c>
+      <c r="I5" s="24">
+        <v>175</v>
+      </c>
+      <c r="J5" s="24">
+        <v>168</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="33">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="28">
+        <f t="shared" si="8"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="O5" s="31">
+        <f>SUM(P5:U5) / div</f>
+        <v>-1.44</v>
+      </c>
+      <c r="P5">
+        <f>(E5-D5) * D$1</f>
+        <v>-5</v>
+      </c>
+      <c r="Q5">
+        <f>(F5-E5) * E$1</f>
+        <v>-12</v>
+      </c>
+      <c r="R5">
+        <f>(G5-F5) * F$1</f>
+        <v>-14</v>
+      </c>
+      <c r="S5">
+        <f>(H5-G5) * G$1</f>
+        <v>-16</v>
+      </c>
+      <c r="T5">
+        <f>(I5-H5) * H$1</f>
+        <v>45</v>
+      </c>
+      <c r="U5">
+        <f>(J5-I5) * I$1</f>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <f t="shared" si="6"/>
+        <v>174.57142857142858</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="7"/>
+        <v>8.0816326530612255</v>
+      </c>
+      <c r="D6" s="24">
+        <v>165</v>
+      </c>
+      <c r="E6" s="24">
+        <v>170</v>
+      </c>
+      <c r="F6" s="24">
+        <v>173</v>
+      </c>
+      <c r="G6" s="34">
+        <v>162</v>
+      </c>
+      <c r="H6" s="24">
+        <v>180</v>
+      </c>
+      <c r="I6" s="24">
+        <v>184</v>
+      </c>
+      <c r="J6" s="24">
+        <v>188</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="33">
+        <v>3</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28">
+        <f t="shared" ref="N6" si="9">ABS(1 - (O6/L6))</f>
+        <v>0.24</v>
+      </c>
+      <c r="O6" s="31">
+        <f>SUM(P6:U6) / div</f>
+        <v>3.72</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="10">(E6-D6) * D$1</f>
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6" si="11">(F6-E6) * E$1</f>
+        <v>18</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6" si="12">(G6-F6) * F$1</f>
+        <v>-77</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6" si="13">(H6-G6) * G$1</f>
+        <v>144</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6" si="14">(I6-H6) * H$1</f>
+        <v>36</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6" si="15">(J6-I6) * I$1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" si="6"/>
+        <v>176.14285714285714</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="7"/>
+        <v>6.7346938775510194</v>
+      </c>
+      <c r="D7" s="24">
+        <v>165</v>
+      </c>
+      <c r="E7" s="24">
+        <v>170</v>
+      </c>
+      <c r="F7" s="24">
+        <v>173</v>
+      </c>
+      <c r="G7" s="34">
+        <v>173</v>
+      </c>
+      <c r="H7" s="24">
+        <v>180</v>
+      </c>
+      <c r="I7" s="24">
+        <v>184</v>
+      </c>
+      <c r="J7" s="24">
+        <v>188</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="33">
+        <v>3</v>
+      </c>
+      <c r="M7" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" ref="N7" si="16">ABS(1 - (O7/L7))</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="O7" s="31">
+        <f>SUM(P7:U7) / div</f>
+        <v>3.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7" si="17">(E7-D7) * D$1</f>
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="18">(F7-E7) * E$1</f>
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7" si="19">(G7-F7) * F$1</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7" si="20">(H7-G7) * G$1</f>
+        <v>56</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7" si="21">(I7-H7) * H$1</f>
+        <v>36</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7" si="22">(J7-I7) * I$1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="7"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="D8" s="24">
+        <v>183</v>
+      </c>
+      <c r="E8" s="24">
+        <v>177</v>
+      </c>
+      <c r="F8" s="24">
+        <v>178</v>
+      </c>
+      <c r="G8" s="24">
+        <v>173</v>
+      </c>
+      <c r="H8" s="24">
+        <v>168</v>
+      </c>
+      <c r="I8" s="24">
+        <v>170</v>
+      </c>
+      <c r="J8" s="24">
+        <v>169</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="28" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="31">
+        <f>SUM(P8:U8) / div</f>
+        <v>-1.82</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P9" si="23">(E8-D8) * D$1</f>
+        <v>-30</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q9" si="24">(F8-E8) * E$1</f>
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R9" si="25">(G8-F8) * F$1</f>
+        <v>-35</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S9" si="26">(H8-G8) * G$1</f>
+        <v>-40</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T9" si="27">(I8-H8) * H$1</f>
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U9" si="28">(J8-I8) * I$1</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <f t="shared" si="6"/>
+        <v>176.85714285714286</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="7"/>
+        <v>7.0204081632653059</v>
+      </c>
+      <c r="D9" s="24">
+        <v>190</v>
+      </c>
+      <c r="E9" s="24">
+        <v>185</v>
+      </c>
+      <c r="F9" s="24">
+        <v>180</v>
+      </c>
+      <c r="G9" s="24">
+        <v>177</v>
+      </c>
+      <c r="H9" s="24">
+        <v>173</v>
+      </c>
+      <c r="I9" s="24">
+        <v>168</v>
+      </c>
+      <c r="J9" s="24">
+        <v>165</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="28" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="31">
+        <f>SUM(P9:U9) / div</f>
+        <v>-3.66</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="23"/>
+        <v>-25</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="24"/>
+        <v>-30</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="25"/>
+        <v>-21</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="26"/>
+        <v>-32</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="27"/>
+        <v>-45</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="28"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <f t="shared" si="6"/>
+        <v>179.4</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="7"/>
+        <v>6.7199999999999989</v>
+      </c>
+      <c r="D10" s="24">
+        <v>190</v>
+      </c>
+      <c r="E10" s="24">
+        <v>185</v>
+      </c>
+      <c r="F10" s="24">
+        <v>180</v>
+      </c>
+      <c r="G10" s="24">
+        <v>177</v>
+      </c>
+      <c r="H10" s="24">
+        <v>165</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="28" t="e">
+        <f t="shared" ref="N10" si="29">ABS(1 - (O10/L10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="31">
+        <f>SUM(P10:U10) / div</f>
+        <v>-3.44</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10" si="30">(E10-D10) * D$1</f>
+        <v>-25</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="31">(F10-E10) * E$1</f>
+        <v>-30</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10" si="32">(G10-F10) * F$1</f>
+        <v>-21</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10" si="33">(H10-G10) * G$1</f>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <f t="shared" si="6"/>
+        <v>179.4</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" si="7"/>
+        <v>6.7199999999999989</v>
+      </c>
+      <c r="D11" s="24">
+        <v>190</v>
+      </c>
+      <c r="E11" s="24">
+        <v>185</v>
+      </c>
+      <c r="F11" s="24">
+        <v>180</v>
+      </c>
+      <c r="G11" s="24">
+        <v>177</v>
+      </c>
+      <c r="H11" s="24">
+        <v>165</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="28" t="e">
+        <f t="shared" ref="N11" si="34">ABS(1 - (O11/L11))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="31">
+        <f>SUM(P11:U11) / div</f>
+        <v>-3.44</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11" si="35">(E11-D11) * D$1</f>
+        <v>-25</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11" si="36">(F11-E11) * E$1</f>
+        <v>-30</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11" si="37">(G11-F11) * F$1</f>
+        <v>-21</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11" si="38">(H11-G11) * G$1</f>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="23">
+        <f>AVERAGE(D12:J12)</f>
+        <v>187.85714285714286</v>
+      </c>
+      <c r="C12" s="23">
+        <f>AVEDEV(D12:J12)</f>
+        <v>4.4081632653061229</v>
+      </c>
+      <c r="D12">
+        <f>B21</f>
+        <v>182</v>
+      </c>
+      <c r="E12">
+        <f>B22</f>
+        <v>186</v>
+      </c>
+      <c r="F12">
+        <f>B23</f>
+        <v>181</v>
+      </c>
+      <c r="G12">
+        <f>B24</f>
+        <v>188</v>
+      </c>
+      <c r="H12">
+        <f>B25</f>
+        <v>201</v>
+      </c>
+      <c r="I12">
+        <f>B26</f>
+        <v>187</v>
+      </c>
+      <c r="J12">
+        <f>B27</f>
+        <v>190</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="28" t="e">
+        <f t="shared" ref="N12" si="39">ABS(1 - (O12/L12))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" s="31">
+        <f>SUM(P12:U12) / div</f>
+        <v>2.86</v>
+      </c>
+      <c r="P12">
+        <f>(E12-D12) * D$1</f>
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <f>(F12-E12) * E$1</f>
+        <v>-30</v>
+      </c>
+      <c r="R12">
+        <f>(G12-F12) * F$1</f>
+        <v>49</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="40">(H12-G12) * G$1</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="23" t="e">
+        <f>AVERAGE(N2:N9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>182</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>190</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"Insert into @tblPace values(" &amp; E21 &amp; ", "  &amp; F21 &amp; ")"</f>
+        <v>Insert into @tblPace values(1, 190)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>186</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="24">
+        <v>185</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G27" si="41">"Insert into @tblPace values(" &amp; E22 &amp; ", "  &amp; F22 &amp; ")"</f>
+        <v>Insert into @tblPace values(2, 185)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>181</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="24">
+        <v>180</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="41"/>
+        <v>Insert into @tblPace values(3, 180)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>188</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24">
+        <v>177</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="41"/>
+        <v>Insert into @tblPace values(4, 177)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>201</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="24">
+        <v>165</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="41"/>
+        <v>Insert into @tblPace values(5, 165)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>187</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" t="str">
+        <f t="shared" si="41"/>
+        <v>Insert into @tblPace values(6, )</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>190</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" t="str">
+        <f t="shared" si="41"/>
+        <v>Insert into @tblPace values(7, )</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/Modal Doc.xlsx
+++ b/BballMVC/_Documentation/Modal Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F131D3D3-BC34-415D-A8A1-C7ED0CD186BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FC7E1-27D9-4AAF-8AC1-99B5D4F7C253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" activeTab="7" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
+    <workbookView xWindow="3480" yWindow="1020" windowWidth="23685" windowHeight="15045" firstSheet="1" activeTab="9" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
   </bookViews>
   <sheets>
     <sheet name="Modal 1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,13 @@
     <sheet name="DailySummary" sheetId="7" r:id="rId6"/>
     <sheet name="xlsB" sheetId="8" r:id="rId7"/>
     <sheet name="Pace" sheetId="9" r:id="rId8"/>
+    <sheet name="TeamAdj" sheetId="10" r:id="rId9"/>
+    <sheet name="TeamAdj2" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="div">Pace!$M$1</definedName>
     <definedName name="header">DailySummary!$K$1:$AS$1</definedName>
+    <definedName name="PCT">TeamAdj!$B$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
   <si>
     <t>_AdjustmentsModel.html</t>
   </si>
@@ -788,15 +791,173 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t xml:space="preserve">ABS(b.ScoreReg - tm.TotalLine) - ABS(b.ScoreReg - tm.OurTotalLine) AS LineDiffResultReg </t>
+  </si>
+  <si>
+    <t>ScoreReg</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Our TL</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>Avg ScoreReg</t>
+  </si>
+  <si>
+    <t>Avg TotalLine</t>
+  </si>
+  <si>
+    <t>Avg OurTotalLine</t>
+  </si>
+  <si>
+    <t>Our v Sc</t>
+  </si>
+  <si>
+    <t>Our v TL</t>
+  </si>
+  <si>
+    <t>Result Diff</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>Sc Diff</t>
+  </si>
+  <si>
+    <t>TL Diff</t>
+  </si>
+  <si>
+    <t>TotalLine</t>
+  </si>
+  <si>
+    <t>OurTotalLine</t>
+  </si>
+  <si>
+    <t>Calc AVGs</t>
+  </si>
+  <si>
+    <t>TeamAdj</t>
+  </si>
+  <si>
+    <t>TL-Sc  Our-Sc</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>LineDiffResultReg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,8 +1033,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +1078,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -939,11 +1131,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1017,9 +1290,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1902,6 +2196,2039 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDDFF4-4DAE-459C-B80D-C1052803403A}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="R2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C3">
+        <v>233.62857142857101</v>
+      </c>
+      <c r="D3">
+        <v>225.6</v>
+      </c>
+      <c r="E3">
+        <v>224.9</v>
+      </c>
+      <c r="F3" s="38">
+        <f>E3-D3</f>
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="G3" s="39">
+        <f>E3-C3</f>
+        <v>-8.7285714285710014</v>
+      </c>
+      <c r="H3" s="40">
+        <f xml:space="preserve"> ABS(D3-C3) - ABS(E3-C3)</f>
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="I3" s="36">
+        <f xml:space="preserve"> -(G3*PCT)</f>
+        <v>2.1821428571427504</v>
+      </c>
+      <c r="J3" s="36">
+        <f xml:space="preserve"> -(H3*PCT)</f>
+        <v>0.17499999999999716</v>
+      </c>
+      <c r="K3" s="54">
+        <f t="shared" ref="K3:K17" si="0">IF(I3&lt;0, I3-J3,I3+J3)</f>
+        <v>2.3571428571427475</v>
+      </c>
+      <c r="L3" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M3" s="36">
+        <f>K3-L3</f>
+        <v>5.7142857142747694E-2</v>
+      </c>
+      <c r="N3" s="36" t="str">
+        <f>IF(ABS(M3) &gt; 0.1,TRUE, "")</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(OR( AND( D3&lt;C3, E3&gt;C3), AND(D3&gt;C3, E3&lt;C3)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3">
+        <v>222</v>
+      </c>
+      <c r="S3">
+        <v>237.5</v>
+      </c>
+      <c r="T3">
+        <v>230.42958460731401</v>
+      </c>
+      <c r="U3" s="5">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C4">
+        <v>220.48571428571401</v>
+      </c>
+      <c r="D4">
+        <v>225</v>
+      </c>
+      <c r="E4">
+        <v>221.8</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" ref="F4:F32" si="1">E4-D4</f>
+        <v>-3.1999999999999886</v>
+      </c>
+      <c r="G4" s="42">
+        <f t="shared" ref="G4:G32" si="2">E4-C4</f>
+        <v>1.3142857142860009</v>
+      </c>
+      <c r="H4" s="43">
+        <f t="shared" ref="H4:H32" si="3" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="I4" s="36">
+        <f xml:space="preserve"> -(G4*PCT)</f>
+        <v>-0.32857142857150023</v>
+      </c>
+      <c r="J4" s="36">
+        <f xml:space="preserve"> -(H4*PCT)</f>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="K4" s="54">
+        <f t="shared" si="0"/>
+        <v>0.47142857142849692</v>
+      </c>
+      <c r="L4" s="36">
+        <v>-0.6</v>
+      </c>
+      <c r="M4" s="36">
+        <f t="shared" ref="M4:M32" si="4">K4-L4</f>
+        <v>1.071428571428497</v>
+      </c>
+      <c r="N4" s="36" t="b">
+        <f t="shared" ref="N4:N32" si="5">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P32" si="6">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R4">
+        <v>251</v>
+      </c>
+      <c r="S4">
+        <v>233.5</v>
+      </c>
+      <c r="T4">
+        <v>234.967330580034</v>
+      </c>
+      <c r="U4" s="5">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C5">
+        <v>237.914285714286</v>
+      </c>
+      <c r="D5">
+        <v>235.8</v>
+      </c>
+      <c r="E5">
+        <v>234.8</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G5" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.1142857142859839</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I5" s="36">
+        <f xml:space="preserve"> -(G5*PCT)</f>
+        <v>0.77857142857149597</v>
+      </c>
+      <c r="J5" s="36">
+        <f xml:space="preserve"> -(H5*PCT)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="54">
+        <f t="shared" si="0"/>
+        <v>1.028571428571496</v>
+      </c>
+      <c r="L5" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="M5" s="36">
+        <f t="shared" si="4"/>
+        <v>1.1285714285714961</v>
+      </c>
+      <c r="N5" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R5">
+        <v>230</v>
+      </c>
+      <c r="S5">
+        <v>229</v>
+      </c>
+      <c r="T5">
+        <v>222.76410565287</v>
+      </c>
+      <c r="U5" s="5">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C6">
+        <v>232.34285714285701</v>
+      </c>
+      <c r="D6">
+        <v>228.1</v>
+      </c>
+      <c r="E6">
+        <v>229.7</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.6428571428570251</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="I6" s="36">
+        <f xml:space="preserve"> -(G6*PCT)</f>
+        <v>0.66071428571425628</v>
+      </c>
+      <c r="J6" s="36">
+        <f xml:space="preserve"> -(H6*PCT)</f>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="K6" s="54">
+        <f t="shared" si="0"/>
+        <v>0.2607142857142577</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.33928571428574228</v>
+      </c>
+      <c r="N6" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R6">
+        <v>229</v>
+      </c>
+      <c r="S6">
+        <v>242</v>
+      </c>
+      <c r="T6">
+        <v>239.947110636308</v>
+      </c>
+      <c r="U6" s="5">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C7">
+        <v>218.914285714286</v>
+      </c>
+      <c r="D7">
+        <v>226.4</v>
+      </c>
+      <c r="E7">
+        <v>223.4</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="2"/>
+        <v>4.4857142857140104</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <f xml:space="preserve"> -(G7*PCT)</f>
+        <v>-1.1214285714285026</v>
+      </c>
+      <c r="J7" s="36">
+        <f xml:space="preserve"> -(H7*PCT)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="K7" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.37142857142850261</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.77142857142850263</v>
+      </c>
+      <c r="N7" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R7">
+        <v>258</v>
+      </c>
+      <c r="S7">
+        <v>234.5</v>
+      </c>
+      <c r="T7">
+        <v>218.61510280306899</v>
+      </c>
+      <c r="U7" s="5">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="50">
+        <v>44237</v>
+      </c>
+      <c r="C8" s="49">
+        <v>229.34285714285701</v>
+      </c>
+      <c r="D8" s="49">
+        <v>223.1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>223.2</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="2"/>
+        <v>-6.1428571428570251</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="I8" s="36">
+        <f xml:space="preserve"> -(G8*PCT)</f>
+        <v>1.5357142857142563</v>
+      </c>
+      <c r="J8" s="36">
+        <f xml:space="preserve"> -(H8*PCT)</f>
+        <v>-2.4999999999998579E-2</v>
+      </c>
+      <c r="K8" s="54">
+        <f t="shared" si="0"/>
+        <v>1.5107142857142577</v>
+      </c>
+      <c r="L8" s="36">
+        <v>1.8</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.28928571428574235</v>
+      </c>
+      <c r="N8" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R8">
+        <v>250</v>
+      </c>
+      <c r="S8">
+        <v>229.5</v>
+      </c>
+      <c r="T8">
+        <v>208.230455909971</v>
+      </c>
+      <c r="U8" s="5">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C9">
+        <v>231.914285714286</v>
+      </c>
+      <c r="D9">
+        <v>229.8</v>
+      </c>
+      <c r="E9">
+        <v>235.4</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="2"/>
+        <v>3.4857142857140104</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.3714285714280265</v>
+      </c>
+      <c r="I9" s="36">
+        <f xml:space="preserve"> -(G9*PCT)</f>
+        <v>-0.87142857142850261</v>
+      </c>
+      <c r="J9" s="36">
+        <f xml:space="preserve"> -(H9*PCT)</f>
+        <v>0.34285714285700664</v>
+      </c>
+      <c r="K9" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.2142857142855092</v>
+      </c>
+      <c r="L9" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M9" s="36">
+        <f t="shared" si="4"/>
+        <v>-2.3142857142855093</v>
+      </c>
+      <c r="N9" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>195</v>
+      </c>
+      <c r="S9">
+        <v>230</v>
+      </c>
+      <c r="T9">
+        <v>202.83238566677599</v>
+      </c>
+      <c r="U9" s="5">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C10">
+        <v>229.2</v>
+      </c>
+      <c r="D10">
+        <v>228.9</v>
+      </c>
+      <c r="E10">
+        <v>225.4</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.7999999999999829</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="I10" s="36">
+        <f xml:space="preserve"> -(G10*PCT)</f>
+        <v>0.94999999999999574</v>
+      </c>
+      <c r="J10" s="36">
+        <f xml:space="preserve"> -(H10*PCT)</f>
+        <v>0.875</v>
+      </c>
+      <c r="K10" s="54">
+        <f t="shared" si="0"/>
+        <v>1.8249999999999957</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.3249999999999957</v>
+      </c>
+      <c r="N10" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R10">
+        <v>200</v>
+      </c>
+      <c r="S10">
+        <v>218.5</v>
+      </c>
+      <c r="T10">
+        <v>219.86976668573899</v>
+      </c>
+      <c r="U10" s="5">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C11">
+        <v>211.48571428571401</v>
+      </c>
+      <c r="D11">
+        <v>217.1</v>
+      </c>
+      <c r="E11">
+        <v>218.2</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="2"/>
+        <v>6.7142857142859782</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="I11" s="36">
+        <f xml:space="preserve"> -(G11*PCT)</f>
+        <v>-1.6785714285714946</v>
+      </c>
+      <c r="J11" s="36">
+        <f xml:space="preserve"> -(H11*PCT)</f>
+        <v>0.27499999999999858</v>
+      </c>
+      <c r="K11" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.9535714285714931</v>
+      </c>
+      <c r="L11" s="36">
+        <v>-1.6</v>
+      </c>
+      <c r="M11" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.35357142857149304</v>
+      </c>
+      <c r="N11" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R11">
+        <v>252</v>
+      </c>
+      <c r="S11">
+        <v>235.5</v>
+      </c>
+      <c r="T11">
+        <v>229.64770032752901</v>
+      </c>
+      <c r="U11" s="5">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C12">
+        <v>230.48571428571401</v>
+      </c>
+      <c r="D12">
+        <v>229.6</v>
+      </c>
+      <c r="E12">
+        <v>227.5</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.9857142857140104</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="3"/>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="I12" s="36">
+        <f xml:space="preserve"> -(G12*PCT)</f>
+        <v>0.74642857142850261</v>
+      </c>
+      <c r="J12" s="36">
+        <f xml:space="preserve"> -(H12*PCT)</f>
+        <v>0.52499999999999858</v>
+      </c>
+      <c r="K12" s="54">
+        <f t="shared" si="0"/>
+        <v>1.2714285714285012</v>
+      </c>
+      <c r="L12" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4714285714285011</v>
+      </c>
+      <c r="N12" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R12">
+        <v>206</v>
+      </c>
+      <c r="S12">
+        <v>236</v>
+      </c>
+      <c r="T12">
+        <v>226.380813488011</v>
+      </c>
+      <c r="U12" s="5">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C13">
+        <v>226.914285714286</v>
+      </c>
+      <c r="D13">
+        <v>222.4</v>
+      </c>
+      <c r="E13">
+        <v>218.8</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.5999999999999943</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" si="2"/>
+        <v>-8.1142857142859839</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.5999999999999943</v>
+      </c>
+      <c r="I13" s="36">
+        <f xml:space="preserve"> -(G13*PCT)</f>
+        <v>2.028571428571496</v>
+      </c>
+      <c r="J13" s="36">
+        <f xml:space="preserve"> -(H13*PCT)</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K13" s="54">
+        <f t="shared" si="0"/>
+        <v>2.9285714285714946</v>
+      </c>
+      <c r="L13" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="4"/>
+        <v>3.1285714285714947</v>
+      </c>
+      <c r="N13" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE(R3:R12)</f>
+        <v>229.3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:T13" si="7">AVERAGE(S3:S12)</f>
+        <v>232.6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>223.36843563576213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44234</v>
+      </c>
+      <c r="C14">
+        <v>218.62857142857101</v>
+      </c>
+      <c r="D14">
+        <v>224.2</v>
+      </c>
+      <c r="E14">
+        <v>223.7</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>5.0714285714289815</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="36">
+        <f xml:space="preserve"> -(G14*PCT)</f>
+        <v>-1.2678571428572454</v>
+      </c>
+      <c r="J14" s="36">
+        <f xml:space="preserve"> -(H14*PCT)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="K14" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.1428571428572454</v>
+      </c>
+      <c r="L14" s="36">
+        <v>-0.7</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.44285714285724542</v>
+      </c>
+      <c r="N14" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44242</v>
+      </c>
+      <c r="C15">
+        <v>227.771428571429</v>
+      </c>
+      <c r="D15">
+        <v>227.1</v>
+      </c>
+      <c r="E15">
+        <v>234.6</v>
+      </c>
+      <c r="F15" s="41">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="2"/>
+        <v>6.8285714285709957</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="3"/>
+        <v>-6.1571428571419915</v>
+      </c>
+      <c r="I15" s="36">
+        <f xml:space="preserve"> -(G15*PCT)</f>
+        <v>-1.7071428571427489</v>
+      </c>
+      <c r="J15" s="36">
+        <f xml:space="preserve"> -(H15*PCT)</f>
+        <v>1.5392857142854979</v>
+      </c>
+      <c r="K15" s="54">
+        <f t="shared" si="0"/>
+        <v>-3.2464285714282468</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="4"/>
+        <v>-4.0464285714282466</v>
+      </c>
+      <c r="N15" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C16">
+        <v>213.34285714285701</v>
+      </c>
+      <c r="D16">
+        <v>221.2</v>
+      </c>
+      <c r="E16">
+        <v>225.6</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="2"/>
+        <v>12.257142857142981</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="I16" s="36">
+        <f xml:space="preserve"> -(G16*PCT)</f>
+        <v>-3.0642857142857451</v>
+      </c>
+      <c r="J16" s="36">
+        <f xml:space="preserve"> -(H16*PCT)</f>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="K16" s="54">
+        <f t="shared" si="0"/>
+        <v>-4.1642857142857466</v>
+      </c>
+      <c r="L16" s="36">
+        <v>-3.7</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.46428571428574639</v>
+      </c>
+      <c r="N16" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44243</v>
+      </c>
+      <c r="C17">
+        <v>222.48571428571401</v>
+      </c>
+      <c r="D17">
+        <v>226.1</v>
+      </c>
+      <c r="E17">
+        <v>231.7</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="2"/>
+        <v>9.2142857142859782</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="3"/>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="I17" s="36">
+        <f xml:space="preserve"> -(G17*PCT)</f>
+        <v>-2.3035714285714946</v>
+      </c>
+      <c r="J17" s="36">
+        <f xml:space="preserve"> -(H17*PCT)</f>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="K17" s="54">
+        <f t="shared" si="0"/>
+        <v>-3.7035714285714931</v>
+      </c>
+      <c r="L17" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="4"/>
+        <v>-3.503571428571493</v>
+      </c>
+      <c r="N17" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C18">
+        <v>218.2</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>223</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.6000000000000227</v>
+      </c>
+      <c r="I18" s="36">
+        <f xml:space="preserve"> -(G18*PCT)</f>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="J18" s="36">
+        <f xml:space="preserve"> -(H18*PCT)</f>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="K18" s="54">
+        <f>IF(I18&lt;0, I18-J18,I18+J18)</f>
+        <v>-2.1000000000000085</v>
+      </c>
+      <c r="L18" s="36">
+        <v>-3.3</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999913</v>
+      </c>
+      <c r="N18" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C19">
+        <v>229.34285714285701</v>
+      </c>
+      <c r="D19">
+        <v>234.9</v>
+      </c>
+      <c r="E19">
+        <v>232</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="2"/>
+        <v>2.6571428571429863</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="I19" s="36">
+        <f xml:space="preserve"> -(G19*PCT)</f>
+        <v>-0.66428571428574656</v>
+      </c>
+      <c r="J19" s="36">
+        <f xml:space="preserve"> -(H19*PCT)</f>
+        <v>-0.72500000000000142</v>
+      </c>
+      <c r="K19" s="54">
+        <f t="shared" ref="K19:K32" si="8">IF(I19&lt;0, I19-J19,I19+J19)</f>
+        <v>6.0714285714254856E-2</v>
+      </c>
+      <c r="L19" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M19" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.0392857142857452</v>
+      </c>
+      <c r="N19" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C20">
+        <v>221.2</v>
+      </c>
+      <c r="D20">
+        <v>226.1</v>
+      </c>
+      <c r="E20">
+        <v>224.7</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="I20" s="36">
+        <f xml:space="preserve"> -(G20*PCT)</f>
+        <v>-0.875</v>
+      </c>
+      <c r="J20" s="36">
+        <f xml:space="preserve"> -(H20*PCT)</f>
+        <v>-0.35000000000000142</v>
+      </c>
+      <c r="K20" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.52499999999999858</v>
+      </c>
+      <c r="L20" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="M20" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.4249999999999986</v>
+      </c>
+      <c r="N20" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C21">
+        <v>248.48571428571401</v>
+      </c>
+      <c r="D21">
+        <v>232.3</v>
+      </c>
+      <c r="E21">
+        <v>238.1</v>
+      </c>
+      <c r="F21" s="41">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" si="2"/>
+        <v>-10.385714285714016</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="I21" s="36">
+        <f xml:space="preserve"> -(G21*PCT)</f>
+        <v>2.596428571428504</v>
+      </c>
+      <c r="J21" s="36">
+        <f xml:space="preserve"> -(H21*PCT)</f>
+        <v>-1.4499999999999957</v>
+      </c>
+      <c r="K21" s="54">
+        <f t="shared" si="8"/>
+        <v>1.1464285714285083</v>
+      </c>
+      <c r="L21" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.25357142857149162</v>
+      </c>
+      <c r="N21" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C22">
+        <v>220.34285714285701</v>
+      </c>
+      <c r="D22">
+        <v>217.6</v>
+      </c>
+      <c r="E22">
+        <v>220.4</v>
+      </c>
+      <c r="F22" s="41">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="2"/>
+        <v>5.7142857142991943E-2</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="3"/>
+        <v>2.6857142857140275</v>
+      </c>
+      <c r="I22" s="36">
+        <f xml:space="preserve"> -(G22*PCT)</f>
+        <v>-1.4285714285747986E-2</v>
+      </c>
+      <c r="J22" s="36">
+        <f xml:space="preserve"> -(H22*PCT)</f>
+        <v>-0.67142857142850687</v>
+      </c>
+      <c r="K22" s="54">
+        <f t="shared" si="8"/>
+        <v>0.65714285714275888</v>
+      </c>
+      <c r="L22" s="36">
+        <v>-0.9</v>
+      </c>
+      <c r="M22" s="36">
+        <f t="shared" si="4"/>
+        <v>1.5571428571427588</v>
+      </c>
+      <c r="N22" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C23">
+        <v>216.48571428571401</v>
+      </c>
+      <c r="D23">
+        <v>224.9</v>
+      </c>
+      <c r="E23">
+        <v>221.2</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.7000000000000171</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="2"/>
+        <v>4.7142857142859782</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="3"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="I23" s="36">
+        <f xml:space="preserve"> -(G23*PCT)</f>
+        <v>-1.1785714285714946</v>
+      </c>
+      <c r="J23" s="36">
+        <f xml:space="preserve"> -(H23*PCT)</f>
+        <v>-0.92500000000000426</v>
+      </c>
+      <c r="K23" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.25357142857149029</v>
+      </c>
+      <c r="L23" s="36">
+        <v>-1.7</v>
+      </c>
+      <c r="M23" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4464285714285097</v>
+      </c>
+      <c r="N23" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C24">
+        <v>214.62857142857101</v>
+      </c>
+      <c r="D24">
+        <v>217.3</v>
+      </c>
+      <c r="E24">
+        <v>219.6</v>
+      </c>
+      <c r="F24" s="41">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999829</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" si="2"/>
+        <v>4.9714285714289872</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="3"/>
+        <v>-2.2999999999999829</v>
+      </c>
+      <c r="I24" s="36">
+        <f xml:space="preserve"> -(G24*PCT)</f>
+        <v>-1.2428571428572468</v>
+      </c>
+      <c r="J24" s="36">
+        <f xml:space="preserve"> -(H24*PCT)</f>
+        <v>0.57499999999999574</v>
+      </c>
+      <c r="K24" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.8178571428572425</v>
+      </c>
+      <c r="L24" s="36">
+        <v>-1.2</v>
+      </c>
+      <c r="M24" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.61785714285724258</v>
+      </c>
+      <c r="N24" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C25">
+        <v>225.2</v>
+      </c>
+      <c r="D25">
+        <v>224.9</v>
+      </c>
+      <c r="E25">
+        <v>227.1</v>
+      </c>
+      <c r="F25" s="41">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="G25" s="42">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="I25" s="36">
+        <f xml:space="preserve"> -(G25*PCT)</f>
+        <v>-0.47500000000000142</v>
+      </c>
+      <c r="J25" s="36">
+        <f xml:space="preserve"> -(H25*PCT)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="K25" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.87500000000000711</v>
+      </c>
+      <c r="L25" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M25" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.67500000000000715</v>
+      </c>
+      <c r="N25" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C26">
+        <v>228.05714285714299</v>
+      </c>
+      <c r="D26">
+        <v>223.9</v>
+      </c>
+      <c r="E26">
+        <v>233.7</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999829</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="2"/>
+        <v>5.6428571428569967</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.4857142857140104</v>
+      </c>
+      <c r="I26" s="36">
+        <f xml:space="preserve"> -(G26*PCT)</f>
+        <v>-1.4107142857142492</v>
+      </c>
+      <c r="J26" s="36">
+        <f xml:space="preserve"> -(H26*PCT)</f>
+        <v>0.37142857142850261</v>
+      </c>
+      <c r="K26" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.7821428571427518</v>
+      </c>
+      <c r="L26" s="36">
+        <v>-1.4</v>
+      </c>
+      <c r="M26" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.38214285714275187</v>
+      </c>
+      <c r="N26" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C27">
+        <v>227.05714285714299</v>
+      </c>
+      <c r="D27">
+        <v>231.6</v>
+      </c>
+      <c r="E27">
+        <v>234.7</v>
+      </c>
+      <c r="F27" s="41">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="2"/>
+        <v>7.6428571428569967</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="I27" s="36">
+        <f xml:space="preserve"> -(G27*PCT)</f>
+        <v>-1.9107142857142492</v>
+      </c>
+      <c r="J27" s="36">
+        <f xml:space="preserve"> -(H27*PCT)</f>
+        <v>0.77499999999999858</v>
+      </c>
+      <c r="K27" s="54">
+        <f t="shared" si="8"/>
+        <v>-2.6857142857142478</v>
+      </c>
+      <c r="L27" s="36">
+        <v>-0.7</v>
+      </c>
+      <c r="M27" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.9857142857142478</v>
+      </c>
+      <c r="N27" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44226</v>
+      </c>
+      <c r="C28">
+        <v>226.34285714285701</v>
+      </c>
+      <c r="D28">
+        <v>225.7</v>
+      </c>
+      <c r="E28">
+        <v>225.7</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.64285714285702511</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <f xml:space="preserve"> -(G28*PCT)</f>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="J28" s="36">
+        <f xml:space="preserve"> -(H28*PCT)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="54">
+        <f t="shared" si="8"/>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="L28" s="36">
+        <v>-0.5</v>
+      </c>
+      <c r="M28" s="36">
+        <f t="shared" si="4"/>
+        <v>0.66071428571425628</v>
+      </c>
+      <c r="N28" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44242</v>
+      </c>
+      <c r="C29">
+        <v>242.771428571429</v>
+      </c>
+      <c r="D29">
+        <v>234.2</v>
+      </c>
+      <c r="E29">
+        <v>229.9</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="1"/>
+        <v>-4.2999999999999829</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" si="2"/>
+        <v>-12.871428571428993</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="3"/>
+        <v>-4.2999999999999829</v>
+      </c>
+      <c r="I29" s="36">
+        <f xml:space="preserve"> -(G29*PCT)</f>
+        <v>3.2178571428572482</v>
+      </c>
+      <c r="J29" s="36">
+        <f xml:space="preserve"> -(H29*PCT)</f>
+        <v>1.0749999999999957</v>
+      </c>
+      <c r="K29" s="54">
+        <f t="shared" si="8"/>
+        <v>4.292857142857244</v>
+      </c>
+      <c r="L29" s="36">
+        <v>4.7</v>
+      </c>
+      <c r="M29" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.40714285714275622</v>
+      </c>
+      <c r="N29" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C30">
+        <v>214.771428571429</v>
+      </c>
+      <c r="D30">
+        <v>227.2</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+      <c r="F30" s="41">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="2"/>
+        <v>14.228571428571001</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="I30" s="36">
+        <f xml:space="preserve"> -(G30*PCT)</f>
+        <v>-3.5571428571427504</v>
+      </c>
+      <c r="J30" s="36">
+        <f xml:space="preserve"> -(H30*PCT)</f>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="K30" s="54">
+        <f t="shared" si="8"/>
+        <v>-4.0071428571427532</v>
+      </c>
+      <c r="L30" s="36">
+        <v>-2.6</v>
+      </c>
+      <c r="M30" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.4071428571427531</v>
+      </c>
+      <c r="N30" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
+        <v>229</v>
+      </c>
+      <c r="S30" t="s">
+        <v>230</v>
+      </c>
+      <c r="T30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C31">
+        <v>233.62857142857101</v>
+      </c>
+      <c r="D31">
+        <v>225.3</v>
+      </c>
+      <c r="E31">
+        <v>232.8</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G31" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.82857142857099575</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="I31" s="36">
+        <f xml:space="preserve"> -(G31*PCT)</f>
+        <v>0.20714285714274894</v>
+      </c>
+      <c r="J31" s="36">
+        <f xml:space="preserve"> -(H31*PCT)</f>
+        <v>-1.875</v>
+      </c>
+      <c r="K31" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.6678571428572511</v>
+      </c>
+      <c r="L31" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.7678571428572512</v>
+      </c>
+      <c r="N31" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>-0.5</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q31" s="5">
+        <v>44228</v>
+      </c>
+      <c r="R31" s="5">
+        <v>44236</v>
+      </c>
+      <c r="S31">
+        <v>63</v>
+      </c>
+      <c r="T31">
+        <v>-8.6995145488333606E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C32">
+        <v>234.771428571429</v>
+      </c>
+      <c r="D32">
+        <v>233.7</v>
+      </c>
+      <c r="E32">
+        <v>222.5</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="1"/>
+        <v>-11.199999999999989</v>
+      </c>
+      <c r="G32" s="45">
+        <f t="shared" si="2"/>
+        <v>-12.271428571428999</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>-11.199999999999989</v>
+      </c>
+      <c r="I32" s="36">
+        <f xml:space="preserve"> -(G32*PCT)</f>
+        <v>3.0678571428572496</v>
+      </c>
+      <c r="J32" s="36">
+        <f xml:space="preserve"> -(H32*PCT)</f>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="K32" s="54">
+        <f t="shared" si="8"/>
+        <v>5.8678571428572468</v>
+      </c>
+      <c r="L32" s="36">
+        <v>3.1</v>
+      </c>
+      <c r="M32" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7678571428572467</v>
+      </c>
+      <c r="N32" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q32" s="5">
+        <v>44237</v>
+      </c>
+      <c r="R32" s="5">
+        <v>44246</v>
+      </c>
+      <c r="S32">
+        <v>75</v>
+      </c>
+      <c r="T32">
+        <v>-0.56801450357120598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="37">
+        <f t="shared" ref="C33:G33" si="9">AVERAGE(C3:C32)</f>
+        <v>226.20476190476185</v>
+      </c>
+      <c r="D33" s="37">
+        <f t="shared" si="9"/>
+        <v>226.23333333333329</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="9"/>
+        <v>227.10333333333332</v>
+      </c>
+      <c r="F33" s="37">
+        <f t="shared" si="9"/>
+        <v>0.86999999999999889</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" si="9"/>
+        <v>0.89857142857146166</v>
+      </c>
+      <c r="H33" s="37">
+        <f>AVERAGE(H3:H32)</f>
+        <v>-0.88428571428566627</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>44246</v>
+      </c>
+      <c r="R33" s="5">
+        <v>44253</v>
+      </c>
+      <c r="S33">
+        <v>52</v>
+      </c>
+      <c r="T33">
+        <v>-1.6510890217888301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C35" s="48">
+        <v>234.171428571429</v>
+      </c>
+      <c r="D35" s="48">
+        <v>233.71428571428601</v>
+      </c>
+      <c r="E35" s="48">
+        <v>222.54086797947701</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" ref="F35" si="10">E35-D35</f>
+        <v>-11.173417734808993</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="11">E35-C35</f>
+        <v>-11.630560591951991</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" ref="H35" si="12" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
+        <v>-11.173417734808993</v>
+      </c>
+      <c r="I35" s="36">
+        <f xml:space="preserve"> -(G35*PCT)</f>
+        <v>2.9076401479879976</v>
+      </c>
+      <c r="J35" s="36">
+        <f xml:space="preserve"> -(H35*PCT)</f>
+        <v>2.7933544337022482</v>
+      </c>
+      <c r="K35" s="36">
+        <f xml:space="preserve"> ROUND( (IF(I35&lt;0, I35-J35,I35+J35)) * 2, 0) / 2</f>
+        <v>5.5</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="P35" t="str">
+        <f t="shared" ref="P35" si="13">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184FAE84-3F46-4073-AA27-D6B7A98148E5}">
   <sheetPr codeName="Sheet2"/>
@@ -7334,14 +9661,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910DA3AF-4FAC-40F6-A674-BA5FA84A8F8A}">
-  <dimension ref="A1"/>
+  <dimension ref="C14:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>204</v>
+      </c>
+      <c r="D16">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>ABS(C16-D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>ABS(C16-E16)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>D18-E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7351,7 +9720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75EF2B-1769-4EC6-8EE7-0A55703BF711}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
@@ -7467,41 +9836,41 @@
         <v>1.2</v>
       </c>
       <c r="O2" s="31">
-        <f>SUM(P2:U2) / div</f>
+        <f t="shared" ref="O2:O12" si="0">SUM(P2:U2) / div</f>
         <v>-0.1</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P4" si="0">(E2-D2) * D$1</f>
+        <f t="shared" ref="P2:U4" si="1">(E2-D2) * D$1</f>
         <v>-25</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q4" si="1">(F2-E2) * E$1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R4" si="2">(G2-F2) * F$1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S9" si="3">(H2-G2) * G$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T9" si="4">(I2-H2) * H$1</f>
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U9" si="5">(J2-I2) * I$1</f>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="23">
-        <f t="shared" ref="B3:B11" si="6">AVERAGE(D3:J3)</f>
+        <f t="shared" ref="B3:B11" si="2">AVERAGE(D3:J3)</f>
         <v>172</v>
       </c>
       <c r="C3" s="23">
-        <f t="shared" ref="C3:C11" si="7">AVEDEV(D3:J3)</f>
+        <f t="shared" ref="C3:C11" si="3">AVEDEV(D3:J3)</f>
         <v>2.2857142857142856</v>
       </c>
       <c r="D3" s="24">
@@ -7531,15 +9900,15 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="28">
-        <f t="shared" ref="N3:N9" si="8">ABS(1 - (O3/L3))</f>
+        <f t="shared" ref="N3:N9" si="4">ABS(1 - (O3/L3))</f>
         <v>0.3600000000000001</v>
       </c>
       <c r="O3" s="31">
-        <f>SUM(P3:U3) / div</f>
+        <f t="shared" si="0"/>
         <v>-0.68</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="Q3">
@@ -7547,29 +9916,29 @@
         <v>-12</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
       <c r="S3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="T3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-63</v>
       </c>
       <c r="U3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>176.85714285714286</v>
       </c>
       <c r="C4" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.3061224489795911</v>
       </c>
       <c r="D4" s="24">
@@ -7599,15 +9968,15 @@
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="O4" s="31">
-        <f>SUM(P4:U4) / div</f>
+        <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="Q4">
@@ -7615,29 +9984,29 @@
         <v>18</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
       <c r="T4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="U4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>173.14285714285714</v>
       </c>
       <c r="C5" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.6938775510204089</v>
       </c>
       <c r="D5" s="24">
@@ -7667,45 +10036,45 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="O5" s="31">
-        <f>SUM(P5:U5) / div</f>
+        <f t="shared" si="0"/>
         <v>-1.44</v>
       </c>
       <c r="P5">
-        <f>(E5-D5) * D$1</f>
+        <f t="shared" ref="P5:U5" si="5">(E5-D5) * D$1</f>
         <v>-5</v>
       </c>
       <c r="Q5">
-        <f>(F5-E5) * E$1</f>
+        <f t="shared" si="5"/>
         <v>-12</v>
       </c>
       <c r="R5">
-        <f>(G5-F5) * F$1</f>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="S5">
-        <f>(H5-G5) * G$1</f>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="T5">
-        <f>(I5-H5) * H$1</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="U5">
-        <f>(J5-I5) * I$1</f>
+        <f t="shared" si="5"/>
         <v>-70</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>174.57142857142858</v>
       </c>
       <c r="C6" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>8.0816326530612255</v>
       </c>
       <c r="D6" s="24">
@@ -7735,35 +10104,35 @@
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="28">
-        <f t="shared" ref="N6" si="9">ABS(1 - (O6/L6))</f>
+        <f>ABS(1 - (O6/L6))</f>
         <v>0.24</v>
       </c>
       <c r="O6" s="31">
-        <f>SUM(P6:U6) / div</f>
+        <f t="shared" si="0"/>
         <v>3.72</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6" si="10">(E6-D6) * D$1</f>
+        <f t="shared" ref="P6:U9" si="6">(E6-D6) * D$1</f>
         <v>25</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6" si="11">(F6-E6) * E$1</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6" si="12">(G6-F6) * F$1</f>
+        <f t="shared" si="6"/>
         <v>-77</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6" si="13">(H6-G6) * G$1</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6" si="14">(I6-H6) * H$1</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6" si="15">(J6-I6) * I$1</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
@@ -7772,11 +10141,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>176.14285714285714</v>
       </c>
       <c r="C7" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.7346938775510194</v>
       </c>
       <c r="D7" s="24">
@@ -7808,45 +10177,45 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" ref="N7" si="16">ABS(1 - (O7/L7))</f>
+        <f>ABS(1 - (O7/L7))</f>
         <v>0.16666666666666674</v>
       </c>
       <c r="O7" s="31">
-        <f>SUM(P7:U7) / div</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7" si="17">(E7-D7) * D$1</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7" si="18">(F7-E7) * E$1</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7" si="19">(G7-F7) * F$1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7" si="20">(H7-G7) * G$1</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7" si="21">(I7-H7) * H$1</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7" si="22">(J7-I7) * I$1</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="C8" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="D8" s="24">
@@ -7874,45 +10243,45 @@
       <c r="L8" s="33"/>
       <c r="M8" s="25"/>
       <c r="N8" s="28" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="31">
-        <f>SUM(P8:U8) / div</f>
+        <f t="shared" si="0"/>
         <v>-1.82</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P9" si="23">(E8-D8) * D$1</f>
+        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q9" si="24">(F8-E8) * E$1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R9" si="25">(G8-F8) * F$1</f>
+        <f t="shared" si="6"/>
         <v>-35</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S9" si="26">(H8-G8) * G$1</f>
+        <f t="shared" si="6"/>
         <v>-40</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T9" si="27">(I8-H8) * H$1</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U9" si="28">(J8-I8) * I$1</f>
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>176.85714285714286</v>
       </c>
       <c r="C9" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.0204081632653059</v>
       </c>
       <c r="D9" s="24">
@@ -7940,45 +10309,45 @@
       <c r="L9" s="33"/>
       <c r="M9" s="25"/>
       <c r="N9" s="28" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O9" s="31">
-        <f>SUM(P9:U9) / div</f>
+        <f t="shared" si="0"/>
         <v>-3.66</v>
       </c>
       <c r="P9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="6"/>
         <v>-25</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
       <c r="R9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>-21</v>
       </c>
       <c r="S9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>-32</v>
       </c>
       <c r="T9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="6"/>
         <v>-45</v>
       </c>
       <c r="U9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>179.4</v>
       </c>
       <c r="C10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.7199999999999989</v>
       </c>
       <c r="D10" s="24">
@@ -8002,37 +10371,37 @@
       <c r="L10" s="33"/>
       <c r="M10" s="25"/>
       <c r="N10" s="28" t="e">
-        <f t="shared" ref="N10" si="29">ABS(1 - (O10/L10))</f>
+        <f>ABS(1 - (O10/L10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="31">
-        <f>SUM(P10:U10) / div</f>
+        <f t="shared" si="0"/>
         <v>-3.44</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10" si="30">(E10-D10) * D$1</f>
+        <f t="shared" ref="P10:S12" si="7">(E10-D10) * D$1</f>
         <v>-25</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10" si="31">(F10-E10) * E$1</f>
+        <f t="shared" si="7"/>
         <v>-30</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10" si="32">(G10-F10) * F$1</f>
+        <f t="shared" si="7"/>
         <v>-21</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10" si="33">(H10-G10) * G$1</f>
+        <f t="shared" si="7"/>
         <v>-96</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>179.4</v>
       </c>
       <c r="C11" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.7199999999999989</v>
       </c>
       <c r="D11" s="24">
@@ -8056,27 +10425,27 @@
       <c r="L11" s="33"/>
       <c r="M11" s="25"/>
       <c r="N11" s="28" t="e">
-        <f t="shared" ref="N11" si="34">ABS(1 - (O11/L11))</f>
+        <f>ABS(1 - (O11/L11))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="31">
-        <f>SUM(P11:U11) / div</f>
+        <f t="shared" si="0"/>
         <v>-3.44</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11" si="35">(E11-D11) * D$1</f>
+        <f t="shared" si="7"/>
         <v>-25</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11" si="36">(F11-E11) * E$1</f>
+        <f t="shared" si="7"/>
         <v>-30</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11" si="37">(G11-F11) * F$1</f>
+        <f t="shared" si="7"/>
         <v>-21</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11" si="38">(H11-G11) * G$1</f>
+        <f t="shared" si="7"/>
         <v>-96</v>
       </c>
     </row>
@@ -8126,27 +10495,27 @@
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="28" t="e">
-        <f t="shared" ref="N12" si="39">ABS(1 - (O12/L12))</f>
+        <f>ABS(1 - (O12/L12))</f>
         <v>#VALUE!</v>
       </c>
       <c r="O12" s="31">
-        <f>SUM(P12:U12) / div</f>
+        <f t="shared" si="0"/>
         <v>2.86</v>
       </c>
       <c r="P12">
-        <f>(E12-D12) * D$1</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Q12">
-        <f>(F12-E12) * E$1</f>
+        <f t="shared" si="7"/>
         <v>-30</v>
       </c>
       <c r="R12">
-        <f>(G12-F12) * F$1</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12" si="40">(H12-G12) * G$1</f>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
     </row>
@@ -8219,7 +10588,7 @@
         <v>185</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G27" si="41">"Insert into @tblPace values(" &amp; E22 &amp; ", "  &amp; F22 &amp; ")"</f>
+        <f t="shared" ref="G22:G27" si="8">"Insert into @tblPace values(" &amp; E22 &amp; ", "  &amp; F22 &amp; ")"</f>
         <v>Insert into @tblPace values(2, 185)</v>
       </c>
     </row>
@@ -8234,7 +10603,7 @@
         <v>180</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>Insert into @tblPace values(3, 180)</v>
       </c>
     </row>
@@ -8249,7 +10618,7 @@
         <v>177</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>Insert into @tblPace values(4, 177)</v>
       </c>
     </row>
@@ -8264,7 +10633,7 @@
         <v>165</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>Insert into @tblPace values(5, 165)</v>
       </c>
     </row>
@@ -8277,7 +10646,7 @@
       </c>
       <c r="F26" s="24"/>
       <c r="G26" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>Insert into @tblPace values(6, )</v>
       </c>
     </row>
@@ -8290,8 +10659,2043 @@
       </c>
       <c r="F27" s="24"/>
       <c r="G27" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>Insert into @tblPace values(7, )</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F96382-E3B7-4EEF-83A1-FDAC12BB973B}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="R2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C3">
+        <v>233.62857142857101</v>
+      </c>
+      <c r="D3">
+        <v>225.6</v>
+      </c>
+      <c r="E3">
+        <v>224.9</v>
+      </c>
+      <c r="F3" s="38">
+        <f>E3-D3</f>
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="G3" s="39">
+        <f>E3-C3</f>
+        <v>-8.7285714285710014</v>
+      </c>
+      <c r="H3" s="40">
+        <f xml:space="preserve"> ABS(D3-C3) - ABS(E3-C3)</f>
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="I3" s="36">
+        <f xml:space="preserve"> -(G3*PCT)</f>
+        <v>2.1821428571427504</v>
+      </c>
+      <c r="J3" s="36">
+        <f xml:space="preserve"> -(H3*PCT)</f>
+        <v>0.17499999999999716</v>
+      </c>
+      <c r="K3" s="54">
+        <f t="shared" ref="K3:K17" si="0">IF(I3&lt;0, I3-J3,I3+J3)</f>
+        <v>2.3571428571427475</v>
+      </c>
+      <c r="L3" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M3" s="36">
+        <f>K3-L3</f>
+        <v>5.7142857142747694E-2</v>
+      </c>
+      <c r="N3" s="36" t="str">
+        <f>IF(ABS(M3) &gt; 0.1,TRUE, "")</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(OR( AND( D3&lt;C3, E3&gt;C3), AND(D3&gt;C3, E3&lt;C3)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3">
+        <v>222</v>
+      </c>
+      <c r="S3">
+        <v>237.5</v>
+      </c>
+      <c r="T3">
+        <v>230.42958460731401</v>
+      </c>
+      <c r="U3" s="5">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C4">
+        <v>220.48571428571401</v>
+      </c>
+      <c r="D4">
+        <v>225</v>
+      </c>
+      <c r="E4">
+        <v>221.8</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" ref="F4:F32" si="1">E4-D4</f>
+        <v>-3.1999999999999886</v>
+      </c>
+      <c r="G4" s="42">
+        <f t="shared" ref="G4:G32" si="2">E4-C4</f>
+        <v>1.3142857142860009</v>
+      </c>
+      <c r="H4" s="43">
+        <f t="shared" ref="H4:H32" si="3" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="I4" s="36">
+        <f xml:space="preserve"> -(G4*PCT)</f>
+        <v>-0.32857142857150023</v>
+      </c>
+      <c r="J4" s="36">
+        <f xml:space="preserve"> -(H4*PCT)</f>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="K4" s="54">
+        <f t="shared" si="0"/>
+        <v>0.47142857142849692</v>
+      </c>
+      <c r="L4" s="36">
+        <v>-0.6</v>
+      </c>
+      <c r="M4" s="36">
+        <f t="shared" ref="M4:M32" si="4">K4-L4</f>
+        <v>1.071428571428497</v>
+      </c>
+      <c r="N4" s="36" t="b">
+        <f t="shared" ref="N4:N32" si="5">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P32" si="6">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R4">
+        <v>251</v>
+      </c>
+      <c r="S4">
+        <v>233.5</v>
+      </c>
+      <c r="T4">
+        <v>234.967330580034</v>
+      </c>
+      <c r="U4" s="5">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C5">
+        <v>237.914285714286</v>
+      </c>
+      <c r="D5">
+        <v>235.8</v>
+      </c>
+      <c r="E5">
+        <v>234.8</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G5" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.1142857142859839</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I5" s="36">
+        <f xml:space="preserve"> -(G5*PCT)</f>
+        <v>0.77857142857149597</v>
+      </c>
+      <c r="J5" s="36">
+        <f xml:space="preserve"> -(H5*PCT)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="54">
+        <f t="shared" si="0"/>
+        <v>1.028571428571496</v>
+      </c>
+      <c r="L5" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="M5" s="36">
+        <f t="shared" si="4"/>
+        <v>1.1285714285714961</v>
+      </c>
+      <c r="N5" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R5">
+        <v>230</v>
+      </c>
+      <c r="S5">
+        <v>229</v>
+      </c>
+      <c r="T5">
+        <v>222.76410565287</v>
+      </c>
+      <c r="U5" s="5">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C6">
+        <v>232.34285714285701</v>
+      </c>
+      <c r="D6">
+        <v>228.1</v>
+      </c>
+      <c r="E6">
+        <v>229.7</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.6428571428570251</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="I6" s="36">
+        <f xml:space="preserve"> -(G6*PCT)</f>
+        <v>0.66071428571425628</v>
+      </c>
+      <c r="J6" s="36">
+        <f xml:space="preserve"> -(H6*PCT)</f>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="K6" s="54">
+        <f t="shared" si="0"/>
+        <v>0.2607142857142577</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.33928571428574228</v>
+      </c>
+      <c r="N6" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R6">
+        <v>229</v>
+      </c>
+      <c r="S6">
+        <v>242</v>
+      </c>
+      <c r="T6">
+        <v>239.947110636308</v>
+      </c>
+      <c r="U6" s="5">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C7">
+        <v>218.914285714286</v>
+      </c>
+      <c r="D7">
+        <v>226.4</v>
+      </c>
+      <c r="E7">
+        <v>223.4</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="2"/>
+        <v>4.4857142857140104</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <f xml:space="preserve"> -(G7*PCT)</f>
+        <v>-1.1214285714285026</v>
+      </c>
+      <c r="J7" s="36">
+        <f xml:space="preserve"> -(H7*PCT)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="K7" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.37142857142850261</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.77142857142850263</v>
+      </c>
+      <c r="N7" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R7">
+        <v>258</v>
+      </c>
+      <c r="S7">
+        <v>234.5</v>
+      </c>
+      <c r="T7">
+        <v>218.61510280306899</v>
+      </c>
+      <c r="U7" s="5">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="50">
+        <v>44237</v>
+      </c>
+      <c r="C8" s="49">
+        <v>229.34285714285701</v>
+      </c>
+      <c r="D8" s="49">
+        <v>223.1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>223.2</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="2"/>
+        <v>-6.1428571428570251</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="I8" s="36">
+        <f xml:space="preserve"> -(G8*PCT)</f>
+        <v>1.5357142857142563</v>
+      </c>
+      <c r="J8" s="36">
+        <f xml:space="preserve"> -(H8*PCT)</f>
+        <v>-2.4999999999998579E-2</v>
+      </c>
+      <c r="K8" s="54">
+        <f t="shared" si="0"/>
+        <v>1.5107142857142577</v>
+      </c>
+      <c r="L8" s="36">
+        <v>1.8</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.28928571428574235</v>
+      </c>
+      <c r="N8" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R8">
+        <v>250</v>
+      </c>
+      <c r="S8">
+        <v>229.5</v>
+      </c>
+      <c r="T8">
+        <v>208.230455909971</v>
+      </c>
+      <c r="U8" s="5">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C9">
+        <v>231.914285714286</v>
+      </c>
+      <c r="D9">
+        <v>229.8</v>
+      </c>
+      <c r="E9">
+        <v>235.4</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="2"/>
+        <v>3.4857142857140104</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.3714285714280265</v>
+      </c>
+      <c r="I9" s="36">
+        <f xml:space="preserve"> -(G9*PCT)</f>
+        <v>-0.87142857142850261</v>
+      </c>
+      <c r="J9" s="36">
+        <f xml:space="preserve"> -(H9*PCT)</f>
+        <v>0.34285714285700664</v>
+      </c>
+      <c r="K9" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.2142857142855092</v>
+      </c>
+      <c r="L9" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M9" s="36">
+        <f t="shared" si="4"/>
+        <v>-2.3142857142855093</v>
+      </c>
+      <c r="N9" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>195</v>
+      </c>
+      <c r="S9">
+        <v>230</v>
+      </c>
+      <c r="T9">
+        <v>202.83238566677599</v>
+      </c>
+      <c r="U9" s="5">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C10">
+        <v>229.2</v>
+      </c>
+      <c r="D10">
+        <v>228.9</v>
+      </c>
+      <c r="E10">
+        <v>225.4</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.7999999999999829</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="I10" s="36">
+        <f xml:space="preserve"> -(G10*PCT)</f>
+        <v>0.94999999999999574</v>
+      </c>
+      <c r="J10" s="36">
+        <f xml:space="preserve"> -(H10*PCT)</f>
+        <v>0.875</v>
+      </c>
+      <c r="K10" s="54">
+        <f t="shared" si="0"/>
+        <v>1.8249999999999957</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="36">
+        <f t="shared" si="4"/>
+        <v>1.3249999999999957</v>
+      </c>
+      <c r="N10" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R10">
+        <v>200</v>
+      </c>
+      <c r="S10">
+        <v>218.5</v>
+      </c>
+      <c r="T10">
+        <v>219.86976668573899</v>
+      </c>
+      <c r="U10" s="5">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C11">
+        <v>211.48571428571401</v>
+      </c>
+      <c r="D11">
+        <v>217.1</v>
+      </c>
+      <c r="E11">
+        <v>218.2</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="2"/>
+        <v>6.7142857142859782</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="I11" s="36">
+        <f xml:space="preserve"> -(G11*PCT)</f>
+        <v>-1.6785714285714946</v>
+      </c>
+      <c r="J11" s="36">
+        <f xml:space="preserve"> -(H11*PCT)</f>
+        <v>0.27499999999999858</v>
+      </c>
+      <c r="K11" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.9535714285714931</v>
+      </c>
+      <c r="L11" s="36">
+        <v>-1.6</v>
+      </c>
+      <c r="M11" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.35357142857149304</v>
+      </c>
+      <c r="N11" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R11">
+        <v>252</v>
+      </c>
+      <c r="S11">
+        <v>235.5</v>
+      </c>
+      <c r="T11">
+        <v>229.64770032752901</v>
+      </c>
+      <c r="U11" s="5">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C12">
+        <v>230.48571428571401</v>
+      </c>
+      <c r="D12">
+        <v>229.6</v>
+      </c>
+      <c r="E12">
+        <v>227.5</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.9857142857140104</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="3"/>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="I12" s="36">
+        <f xml:space="preserve"> -(G12*PCT)</f>
+        <v>0.74642857142850261</v>
+      </c>
+      <c r="J12" s="36">
+        <f xml:space="preserve"> -(H12*PCT)</f>
+        <v>0.52499999999999858</v>
+      </c>
+      <c r="K12" s="54">
+        <f t="shared" si="0"/>
+        <v>1.2714285714285012</v>
+      </c>
+      <c r="L12" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4714285714285011</v>
+      </c>
+      <c r="N12" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R12">
+        <v>206</v>
+      </c>
+      <c r="S12">
+        <v>236</v>
+      </c>
+      <c r="T12">
+        <v>226.380813488011</v>
+      </c>
+      <c r="U12" s="5">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C13">
+        <v>226.914285714286</v>
+      </c>
+      <c r="D13">
+        <v>222.4</v>
+      </c>
+      <c r="E13">
+        <v>218.8</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.5999999999999943</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" si="2"/>
+        <v>-8.1142857142859839</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.5999999999999943</v>
+      </c>
+      <c r="I13" s="36">
+        <f xml:space="preserve"> -(G13*PCT)</f>
+        <v>2.028571428571496</v>
+      </c>
+      <c r="J13" s="36">
+        <f xml:space="preserve"> -(H13*PCT)</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K13" s="54">
+        <f t="shared" si="0"/>
+        <v>2.9285714285714946</v>
+      </c>
+      <c r="L13" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="4"/>
+        <v>3.1285714285714947</v>
+      </c>
+      <c r="N13" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13">
+        <f>AVERAGE(R3:R12)</f>
+        <v>229.3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:T13" si="7">AVERAGE(S3:S12)</f>
+        <v>232.6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>223.36843563576213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44234</v>
+      </c>
+      <c r="C14">
+        <v>218.62857142857101</v>
+      </c>
+      <c r="D14">
+        <v>224.2</v>
+      </c>
+      <c r="E14">
+        <v>223.7</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>5.0714285714289815</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="36">
+        <f xml:space="preserve"> -(G14*PCT)</f>
+        <v>-1.2678571428572454</v>
+      </c>
+      <c r="J14" s="36">
+        <f xml:space="preserve"> -(H14*PCT)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="K14" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.1428571428572454</v>
+      </c>
+      <c r="L14" s="36">
+        <v>-0.7</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.44285714285724542</v>
+      </c>
+      <c r="N14" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44242</v>
+      </c>
+      <c r="C15">
+        <v>227.771428571429</v>
+      </c>
+      <c r="D15">
+        <v>227.1</v>
+      </c>
+      <c r="E15">
+        <v>234.6</v>
+      </c>
+      <c r="F15" s="41">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="2"/>
+        <v>6.8285714285709957</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="3"/>
+        <v>-6.1571428571419915</v>
+      </c>
+      <c r="I15" s="36">
+        <f xml:space="preserve"> -(G15*PCT)</f>
+        <v>-1.7071428571427489</v>
+      </c>
+      <c r="J15" s="36">
+        <f xml:space="preserve"> -(H15*PCT)</f>
+        <v>1.5392857142854979</v>
+      </c>
+      <c r="K15" s="54">
+        <f t="shared" si="0"/>
+        <v>-3.2464285714282468</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="4"/>
+        <v>-4.0464285714282466</v>
+      </c>
+      <c r="N15" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C16">
+        <v>213.34285714285701</v>
+      </c>
+      <c r="D16">
+        <v>221.2</v>
+      </c>
+      <c r="E16">
+        <v>225.6</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="2"/>
+        <v>12.257142857142981</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="I16" s="36">
+        <f xml:space="preserve"> -(G16*PCT)</f>
+        <v>-3.0642857142857451</v>
+      </c>
+      <c r="J16" s="36">
+        <f xml:space="preserve"> -(H16*PCT)</f>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="K16" s="54">
+        <f t="shared" si="0"/>
+        <v>-4.1642857142857466</v>
+      </c>
+      <c r="L16" s="36">
+        <v>-3.7</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.46428571428574639</v>
+      </c>
+      <c r="N16" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44243</v>
+      </c>
+      <c r="C17">
+        <v>222.48571428571401</v>
+      </c>
+      <c r="D17">
+        <v>226.1</v>
+      </c>
+      <c r="E17">
+        <v>231.7</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="2"/>
+        <v>9.2142857142859782</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="3"/>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="I17" s="36">
+        <f xml:space="preserve"> -(G17*PCT)</f>
+        <v>-2.3035714285714946</v>
+      </c>
+      <c r="J17" s="36">
+        <f xml:space="preserve"> -(H17*PCT)</f>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="K17" s="54">
+        <f t="shared" si="0"/>
+        <v>-3.7035714285714931</v>
+      </c>
+      <c r="L17" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="4"/>
+        <v>-3.503571428571493</v>
+      </c>
+      <c r="N17" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C18">
+        <v>218.2</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>223</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.6000000000000227</v>
+      </c>
+      <c r="I18" s="36">
+        <f xml:space="preserve"> -(G18*PCT)</f>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="J18" s="36">
+        <f xml:space="preserve"> -(H18*PCT)</f>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="K18" s="54">
+        <f>IF(I18&lt;0, I18-J18,I18+J18)</f>
+        <v>-2.1000000000000085</v>
+      </c>
+      <c r="L18" s="36">
+        <v>-3.3</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999913</v>
+      </c>
+      <c r="N18" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C19">
+        <v>229.34285714285701</v>
+      </c>
+      <c r="D19">
+        <v>234.9</v>
+      </c>
+      <c r="E19">
+        <v>232</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" si="1"/>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="2"/>
+        <v>2.6571428571429863</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="I19" s="36">
+        <f xml:space="preserve"> -(G19*PCT)</f>
+        <v>-0.66428571428574656</v>
+      </c>
+      <c r="J19" s="36">
+        <f xml:space="preserve"> -(H19*PCT)</f>
+        <v>-0.72500000000000142</v>
+      </c>
+      <c r="K19" s="54">
+        <f t="shared" ref="K19:K32" si="8">IF(I19&lt;0, I19-J19,I19+J19)</f>
+        <v>6.0714285714254856E-2</v>
+      </c>
+      <c r="L19" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M19" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.0392857142857452</v>
+      </c>
+      <c r="N19" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C20">
+        <v>221.2</v>
+      </c>
+      <c r="D20">
+        <v>226.1</v>
+      </c>
+      <c r="E20">
+        <v>224.7</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" si="1"/>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="I20" s="36">
+        <f xml:space="preserve"> -(G20*PCT)</f>
+        <v>-0.875</v>
+      </c>
+      <c r="J20" s="36">
+        <f xml:space="preserve"> -(H20*PCT)</f>
+        <v>-0.35000000000000142</v>
+      </c>
+      <c r="K20" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.52499999999999858</v>
+      </c>
+      <c r="L20" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="M20" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.4249999999999986</v>
+      </c>
+      <c r="N20" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C21">
+        <v>248.48571428571401</v>
+      </c>
+      <c r="D21">
+        <v>232.3</v>
+      </c>
+      <c r="E21">
+        <v>238.1</v>
+      </c>
+      <c r="F21" s="41">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" si="2"/>
+        <v>-10.385714285714016</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999829</v>
+      </c>
+      <c r="I21" s="36">
+        <f xml:space="preserve"> -(G21*PCT)</f>
+        <v>2.596428571428504</v>
+      </c>
+      <c r="J21" s="36">
+        <f xml:space="preserve"> -(H21*PCT)</f>
+        <v>-1.4499999999999957</v>
+      </c>
+      <c r="K21" s="54">
+        <f t="shared" si="8"/>
+        <v>1.1464285714285083</v>
+      </c>
+      <c r="L21" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.25357142857149162</v>
+      </c>
+      <c r="N21" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C22">
+        <v>220.34285714285701</v>
+      </c>
+      <c r="D22">
+        <v>217.6</v>
+      </c>
+      <c r="E22">
+        <v>220.4</v>
+      </c>
+      <c r="F22" s="41">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="2"/>
+        <v>5.7142857142991943E-2</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="3"/>
+        <v>2.6857142857140275</v>
+      </c>
+      <c r="I22" s="36">
+        <f xml:space="preserve"> -(G22*PCT)</f>
+        <v>-1.4285714285747986E-2</v>
+      </c>
+      <c r="J22" s="36">
+        <f xml:space="preserve"> -(H22*PCT)</f>
+        <v>-0.67142857142850687</v>
+      </c>
+      <c r="K22" s="54">
+        <f t="shared" si="8"/>
+        <v>0.65714285714275888</v>
+      </c>
+      <c r="L22" s="36">
+        <v>-0.9</v>
+      </c>
+      <c r="M22" s="36">
+        <f t="shared" si="4"/>
+        <v>1.5571428571427588</v>
+      </c>
+      <c r="N22" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C23">
+        <v>216.48571428571401</v>
+      </c>
+      <c r="D23">
+        <v>224.9</v>
+      </c>
+      <c r="E23">
+        <v>221.2</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="1"/>
+        <v>-3.7000000000000171</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="2"/>
+        <v>4.7142857142859782</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="3"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="I23" s="36">
+        <f xml:space="preserve"> -(G23*PCT)</f>
+        <v>-1.1785714285714946</v>
+      </c>
+      <c r="J23" s="36">
+        <f xml:space="preserve"> -(H23*PCT)</f>
+        <v>-0.92500000000000426</v>
+      </c>
+      <c r="K23" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.25357142857149029</v>
+      </c>
+      <c r="L23" s="36">
+        <v>-1.7</v>
+      </c>
+      <c r="M23" s="36">
+        <f t="shared" si="4"/>
+        <v>1.4464285714285097</v>
+      </c>
+      <c r="N23" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C24">
+        <v>214.62857142857101</v>
+      </c>
+      <c r="D24">
+        <v>217.3</v>
+      </c>
+      <c r="E24">
+        <v>219.6</v>
+      </c>
+      <c r="F24" s="41">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999829</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" si="2"/>
+        <v>4.9714285714289872</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="3"/>
+        <v>-2.2999999999999829</v>
+      </c>
+      <c r="I24" s="36">
+        <f xml:space="preserve"> -(G24*PCT)</f>
+        <v>-1.2428571428572468</v>
+      </c>
+      <c r="J24" s="36">
+        <f xml:space="preserve"> -(H24*PCT)</f>
+        <v>0.57499999999999574</v>
+      </c>
+      <c r="K24" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.8178571428572425</v>
+      </c>
+      <c r="L24" s="36">
+        <v>-1.2</v>
+      </c>
+      <c r="M24" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.61785714285724258</v>
+      </c>
+      <c r="N24" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C25">
+        <v>225.2</v>
+      </c>
+      <c r="D25">
+        <v>224.9</v>
+      </c>
+      <c r="E25">
+        <v>227.1</v>
+      </c>
+      <c r="F25" s="41">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="G25" s="42">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="I25" s="36">
+        <f xml:space="preserve"> -(G25*PCT)</f>
+        <v>-0.47500000000000142</v>
+      </c>
+      <c r="J25" s="36">
+        <f xml:space="preserve"> -(H25*PCT)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="K25" s="54">
+        <f t="shared" si="8"/>
+        <v>-0.87500000000000711</v>
+      </c>
+      <c r="L25" s="36">
+        <v>-0.2</v>
+      </c>
+      <c r="M25" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.67500000000000715</v>
+      </c>
+      <c r="N25" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44240</v>
+      </c>
+      <c r="C26">
+        <v>228.05714285714299</v>
+      </c>
+      <c r="D26">
+        <v>223.9</v>
+      </c>
+      <c r="E26">
+        <v>233.7</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999829</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="2"/>
+        <v>5.6428571428569967</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.4857142857140104</v>
+      </c>
+      <c r="I26" s="36">
+        <f xml:space="preserve"> -(G26*PCT)</f>
+        <v>-1.4107142857142492</v>
+      </c>
+      <c r="J26" s="36">
+        <f xml:space="preserve"> -(H26*PCT)</f>
+        <v>0.37142857142850261</v>
+      </c>
+      <c r="K26" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.7821428571427518</v>
+      </c>
+      <c r="L26" s="36">
+        <v>-1.4</v>
+      </c>
+      <c r="M26" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.38214285714275187</v>
+      </c>
+      <c r="N26" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C27">
+        <v>227.05714285714299</v>
+      </c>
+      <c r="D27">
+        <v>231.6</v>
+      </c>
+      <c r="E27">
+        <v>234.7</v>
+      </c>
+      <c r="F27" s="41">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="2"/>
+        <v>7.6428571428569967</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="3"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="I27" s="36">
+        <f xml:space="preserve"> -(G27*PCT)</f>
+        <v>-1.9107142857142492</v>
+      </c>
+      <c r="J27" s="36">
+        <f xml:space="preserve"> -(H27*PCT)</f>
+        <v>0.77499999999999858</v>
+      </c>
+      <c r="K27" s="54">
+        <f t="shared" si="8"/>
+        <v>-2.6857142857142478</v>
+      </c>
+      <c r="L27" s="36">
+        <v>-0.7</v>
+      </c>
+      <c r="M27" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.9857142857142478</v>
+      </c>
+      <c r="N27" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44226</v>
+      </c>
+      <c r="C28">
+        <v>226.34285714285701</v>
+      </c>
+      <c r="D28">
+        <v>225.7</v>
+      </c>
+      <c r="E28">
+        <v>225.7</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.64285714285702511</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <f xml:space="preserve"> -(G28*PCT)</f>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="J28" s="36">
+        <f xml:space="preserve"> -(H28*PCT)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="54">
+        <f t="shared" si="8"/>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="L28" s="36">
+        <v>-0.5</v>
+      </c>
+      <c r="M28" s="36">
+        <f t="shared" si="4"/>
+        <v>0.66071428571425628</v>
+      </c>
+      <c r="N28" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44242</v>
+      </c>
+      <c r="C29">
+        <v>242.771428571429</v>
+      </c>
+      <c r="D29">
+        <v>234.2</v>
+      </c>
+      <c r="E29">
+        <v>229.9</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="1"/>
+        <v>-4.2999999999999829</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" si="2"/>
+        <v>-12.871428571428993</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="3"/>
+        <v>-4.2999999999999829</v>
+      </c>
+      <c r="I29" s="36">
+        <f xml:space="preserve"> -(G29*PCT)</f>
+        <v>3.2178571428572482</v>
+      </c>
+      <c r="J29" s="36">
+        <f xml:space="preserve"> -(H29*PCT)</f>
+        <v>1.0749999999999957</v>
+      </c>
+      <c r="K29" s="54">
+        <f t="shared" si="8"/>
+        <v>4.292857142857244</v>
+      </c>
+      <c r="L29" s="36">
+        <v>4.7</v>
+      </c>
+      <c r="M29" s="36">
+        <f t="shared" si="4"/>
+        <v>-0.40714285714275622</v>
+      </c>
+      <c r="N29" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C30">
+        <v>214.771428571429</v>
+      </c>
+      <c r="D30">
+        <v>227.2</v>
+      </c>
+      <c r="E30">
+        <v>229</v>
+      </c>
+      <c r="F30" s="41">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="2"/>
+        <v>14.228571428571001</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="3"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="I30" s="36">
+        <f xml:space="preserve"> -(G30*PCT)</f>
+        <v>-3.5571428571427504</v>
+      </c>
+      <c r="J30" s="36">
+        <f xml:space="preserve"> -(H30*PCT)</f>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="K30" s="54">
+        <f t="shared" si="8"/>
+        <v>-4.0071428571427532</v>
+      </c>
+      <c r="L30" s="36">
+        <v>-2.6</v>
+      </c>
+      <c r="M30" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.4071428571427531</v>
+      </c>
+      <c r="N30" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
+        <v>229</v>
+      </c>
+      <c r="S30" t="s">
+        <v>230</v>
+      </c>
+      <c r="T30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C31">
+        <v>233.62857142857101</v>
+      </c>
+      <c r="D31">
+        <v>225.3</v>
+      </c>
+      <c r="E31">
+        <v>232.8</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="G31" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.82857142857099575</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="I31" s="36">
+        <f xml:space="preserve"> -(G31*PCT)</f>
+        <v>0.20714285714274894</v>
+      </c>
+      <c r="J31" s="36">
+        <f xml:space="preserve"> -(H31*PCT)</f>
+        <v>-1.875</v>
+      </c>
+      <c r="K31" s="54">
+        <f t="shared" si="8"/>
+        <v>-1.6678571428572511</v>
+      </c>
+      <c r="L31" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="36">
+        <f t="shared" si="4"/>
+        <v>-1.7678571428572512</v>
+      </c>
+      <c r="N31" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>-0.5</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q31" s="5">
+        <v>44228</v>
+      </c>
+      <c r="R31" s="5">
+        <v>44236</v>
+      </c>
+      <c r="S31">
+        <v>63</v>
+      </c>
+      <c r="T31">
+        <v>-8.6995145488333606E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C32">
+        <v>234.771428571429</v>
+      </c>
+      <c r="D32">
+        <v>233.7</v>
+      </c>
+      <c r="E32">
+        <v>222.5</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="1"/>
+        <v>-11.199999999999989</v>
+      </c>
+      <c r="G32" s="45">
+        <f t="shared" si="2"/>
+        <v>-12.271428571428999</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="3"/>
+        <v>-11.199999999999989</v>
+      </c>
+      <c r="I32" s="36">
+        <f xml:space="preserve"> -(G32*PCT)</f>
+        <v>3.0678571428572496</v>
+      </c>
+      <c r="J32" s="36">
+        <f xml:space="preserve"> -(H32*PCT)</f>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="K32" s="54">
+        <f t="shared" si="8"/>
+        <v>5.8678571428572468</v>
+      </c>
+      <c r="L32" s="36">
+        <v>3.1</v>
+      </c>
+      <c r="M32" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7678571428572467</v>
+      </c>
+      <c r="N32" s="36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q32" s="5">
+        <v>44237</v>
+      </c>
+      <c r="R32" s="5">
+        <v>44246</v>
+      </c>
+      <c r="S32">
+        <v>75</v>
+      </c>
+      <c r="T32">
+        <v>-0.56801450357120598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="37">
+        <f t="shared" ref="C33" si="9">AVERAGE(C3:C32)</f>
+        <v>226.20476190476185</v>
+      </c>
+      <c r="D33" s="37">
+        <f t="shared" ref="D33" si="10">AVERAGE(D3:D32)</f>
+        <v>226.23333333333329</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" ref="E33" si="11">AVERAGE(E3:E32)</f>
+        <v>227.10333333333332</v>
+      </c>
+      <c r="F33" s="37">
+        <f t="shared" ref="F33:G33" si="12">AVERAGE(F3:F32)</f>
+        <v>0.86999999999999889</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" si="12"/>
+        <v>0.89857142857146166</v>
+      </c>
+      <c r="H33" s="37">
+        <f>AVERAGE(H3:H32)</f>
+        <v>-0.88428571428566627</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>44246</v>
+      </c>
+      <c r="R33" s="5">
+        <v>44253</v>
+      </c>
+      <c r="S33">
+        <v>52</v>
+      </c>
+      <c r="T33">
+        <v>-1.6510890217888301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="5">
+        <v>44241</v>
+      </c>
+      <c r="C35" s="48">
+        <v>234.171428571429</v>
+      </c>
+      <c r="D35" s="48">
+        <v>233.71428571428601</v>
+      </c>
+      <c r="E35" s="48">
+        <v>222.54086797947701</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" ref="F35" si="13">E35-D35</f>
+        <v>-11.173417734808993</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="14">E35-C35</f>
+        <v>-11.630560591951991</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" ref="H35" si="15" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
+        <v>-11.173417734808993</v>
+      </c>
+      <c r="I35" s="36">
+        <f xml:space="preserve"> -(G35*PCT)</f>
+        <v>2.9076401479879976</v>
+      </c>
+      <c r="J35" s="36">
+        <f xml:space="preserve"> -(H35*PCT)</f>
+        <v>2.7933544337022482</v>
+      </c>
+      <c r="K35" s="36">
+        <f xml:space="preserve"> ROUND( (IF(I35&lt;0, I35-J35,I35+J35)) * 2, 0) / 2</f>
+        <v>5.5</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="P35" t="str">
+        <f t="shared" ref="P35" si="16">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/Modal Doc.xlsx
+++ b/BballMVC/_Documentation/Modal Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FC7E1-27D9-4AAF-8AC1-99B5D4F7C253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2D772-0FF3-4043-8BBF-DA80E4AB1A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1020" windowWidth="23685" windowHeight="15045" firstSheet="1" activeTab="9" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
+    <workbookView xWindow="30030" yWindow="1185" windowWidth="21600" windowHeight="13275" firstSheet="3" activeTab="10" xr2:uid="{916B6D86-6B13-4750-B471-CBED30586774}"/>
   </bookViews>
   <sheets>
     <sheet name="Modal 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Pace" sheetId="9" r:id="rId8"/>
     <sheet name="TeamAdj" sheetId="10" r:id="rId9"/>
     <sheet name="TeamAdj2" sheetId="11" r:id="rId10"/>
+    <sheet name="TMunAdjTotals" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="div">Pace!$M$1</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="251">
   <si>
     <t>_AdjustmentsModel.html</t>
   </si>
@@ -947,6 +949,63 @@
   <si>
     <t>LineDiffResultReg</t>
   </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>GBn  WeightGBn</t>
+  </si>
+  <si>
+    <t>Game Back 3  - Weight: 1</t>
+  </si>
+  <si>
+    <t>Game Back 5</t>
+  </si>
+  <si>
+    <t>Game Back 7</t>
+  </si>
+  <si>
+    <t>Away: Den</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
+  </si>
+  <si>
+    <t>15.5 = 1 * (12 + ((13-16) * 95%)</t>
+  </si>
+  <si>
+    <t>0 1 0</t>
+  </si>
+  <si>
+    <t>0 2 0</t>
+  </si>
+  <si>
+    <t>0 0 1</t>
+  </si>
+  <si>
+    <t>31.1 = 2 * (12 + ((13-16) * 95%)</t>
+  </si>
+  <si>
+    <t>0 1 1</t>
+  </si>
+  <si>
+    <t>0 0 2</t>
+  </si>
+  <si>
+    <t>31.1 = 3 * (12 + ((13-16) * 95%)</t>
+  </si>
+  <si>
+    <t>0 1 2</t>
+  </si>
+  <si>
+    <t>105.2 (AwayGB1)</t>
+  </si>
+  <si>
+    <t>105.2</t>
+  </si>
+  <si>
+    <t>Home: Dal</t>
+  </si>
 </sst>
 </file>
 
@@ -957,7 +1016,7 @@
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1104,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1216,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1310,6 +1374,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2200,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEDDFF4-4DAE-459C-B80D-C1052803403A}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
@@ -2307,15 +2372,15 @@
         <v>-0.69999999999998863</v>
       </c>
       <c r="I3" s="36">
-        <f xml:space="preserve"> -(G3*PCT)</f>
+        <f t="shared" ref="I3:I32" si="0" xml:space="preserve"> -(G3*PCT)</f>
         <v>2.1821428571427504</v>
       </c>
       <c r="J3" s="36">
-        <f xml:space="preserve"> -(H3*PCT)</f>
+        <f t="shared" ref="J3:J32" si="1" xml:space="preserve"> -(H3*PCT)</f>
         <v>0.17499999999999716</v>
       </c>
       <c r="K3" s="54">
-        <f t="shared" ref="K3:K17" si="0">IF(I3&lt;0, I3-J3,I3+J3)</f>
+        <f t="shared" ref="K3:K17" si="2">IF(I3&lt;0, I3-J3,I3+J3)</f>
         <v>2.3571428571427475</v>
       </c>
       <c r="L3" s="36">
@@ -2363,42 +2428,42 @@
         <v>221.8</v>
       </c>
       <c r="F4" s="41">
-        <f t="shared" ref="F4:F32" si="1">E4-D4</f>
+        <f t="shared" ref="F4:F32" si="3">E4-D4</f>
         <v>-3.1999999999999886</v>
       </c>
       <c r="G4" s="42">
-        <f t="shared" ref="G4:G32" si="2">E4-C4</f>
+        <f t="shared" ref="G4:G32" si="4">E4-C4</f>
         <v>1.3142857142860009</v>
       </c>
       <c r="H4" s="43">
-        <f t="shared" ref="H4:H32" si="3" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
+        <f t="shared" ref="H4:H32" si="5" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
         <v>3.1999999999999886</v>
       </c>
       <c r="I4" s="36">
-        <f xml:space="preserve"> -(G4*PCT)</f>
+        <f t="shared" si="0"/>
         <v>-0.32857142857150023</v>
       </c>
       <c r="J4" s="36">
-        <f xml:space="preserve"> -(H4*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="K4" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.47142857142849692</v>
       </c>
       <c r="L4" s="36">
         <v>-0.6</v>
       </c>
       <c r="M4" s="36">
-        <f t="shared" ref="M4:M32" si="4">K4-L4</f>
+        <f t="shared" ref="M4:M32" si="6">K4-L4</f>
         <v>1.071428571428497</v>
       </c>
       <c r="N4" s="36" t="b">
-        <f t="shared" ref="N4:N32" si="5">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
+        <f t="shared" ref="N4:N32" si="7">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
         <v>1</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P32" si="6">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
+        <f t="shared" ref="P4:P32" si="8">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R4">
@@ -2431,42 +2496,42 @@
         <v>234.8</v>
       </c>
       <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="G5" s="42">
-        <f t="shared" si="2"/>
-        <v>-3.1142857142859839</v>
-      </c>
-      <c r="H5" s="43">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="G5" s="42">
+        <f t="shared" si="4"/>
+        <v>-3.1142857142859839</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
       <c r="I5" s="36">
-        <f xml:space="preserve"> -(G5*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.77857142857149597</v>
       </c>
       <c r="J5" s="36">
-        <f xml:space="preserve"> -(H5*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K5" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.028571428571496</v>
       </c>
       <c r="L5" s="36">
         <v>-0.1</v>
       </c>
       <c r="M5" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1285714285714961</v>
       </c>
       <c r="N5" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R5">
@@ -2499,42 +2564,42 @@
         <v>229.7</v>
       </c>
       <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="G6" s="42">
-        <f t="shared" si="2"/>
-        <v>-2.6428571428570251</v>
-      </c>
-      <c r="H6" s="43">
         <f t="shared" si="3"/>
         <v>1.5999999999999943</v>
       </c>
+      <c r="G6" s="42">
+        <f t="shared" si="4"/>
+        <v>-2.6428571428570251</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999943</v>
+      </c>
       <c r="I6" s="36">
-        <f xml:space="preserve"> -(G6*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.66071428571425628</v>
       </c>
       <c r="J6" s="36">
-        <f xml:space="preserve"> -(H6*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-0.39999999999999858</v>
       </c>
       <c r="K6" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2607142857142577</v>
       </c>
       <c r="L6" s="36">
         <v>0.6</v>
       </c>
       <c r="M6" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.33928571428574228</v>
       </c>
       <c r="N6" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6">
@@ -2567,42 +2632,42 @@
         <v>223.4</v>
       </c>
       <c r="F7" s="41">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="4"/>
+        <v>4.4857142857140104</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.1214285714285026</v>
+      </c>
+      <c r="J7" s="36">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="G7" s="42">
+        <v>-0.75</v>
+      </c>
+      <c r="K7" s="54">
         <f t="shared" si="2"/>
-        <v>4.4857142857140104</v>
-      </c>
-      <c r="H7" s="43">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I7" s="36">
-        <f xml:space="preserve"> -(G7*PCT)</f>
-        <v>-1.1214285714285026</v>
-      </c>
-      <c r="J7" s="36">
-        <f xml:space="preserve"> -(H7*PCT)</f>
-        <v>-0.75</v>
-      </c>
-      <c r="K7" s="54">
-        <f t="shared" si="0"/>
         <v>-0.37142857142850261</v>
       </c>
       <c r="L7" s="36">
         <v>0.4</v>
       </c>
       <c r="M7" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.77142857142850263</v>
       </c>
       <c r="N7" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R7">
@@ -2635,42 +2700,42 @@
         <v>223.2</v>
       </c>
       <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="G8" s="42">
-        <f t="shared" si="2"/>
-        <v>-6.1428571428570251</v>
-      </c>
-      <c r="H8" s="43">
         <f t="shared" si="3"/>
         <v>9.9999999999994316E-2</v>
       </c>
+      <c r="G8" s="42">
+        <f t="shared" si="4"/>
+        <v>-6.1428571428570251</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="5"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
       <c r="I8" s="36">
-        <f xml:space="preserve"> -(G8*PCT)</f>
+        <f t="shared" si="0"/>
         <v>1.5357142857142563</v>
       </c>
       <c r="J8" s="36">
-        <f xml:space="preserve"> -(H8*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-2.4999999999998579E-2</v>
       </c>
       <c r="K8" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5107142857142577</v>
       </c>
       <c r="L8" s="36">
         <v>1.8</v>
       </c>
       <c r="M8" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.28928571428574235</v>
       </c>
       <c r="N8" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R8">
@@ -2703,42 +2768,42 @@
         <v>235.4</v>
       </c>
       <c r="F9" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="4"/>
+        <v>3.4857142857140104</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.3714285714280265</v>
+      </c>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.87142857142850261</v>
+      </c>
+      <c r="J9" s="36">
         <f t="shared" si="1"/>
-        <v>5.5999999999999943</v>
-      </c>
-      <c r="G9" s="42">
+        <v>0.34285714285700664</v>
+      </c>
+      <c r="K9" s="54">
         <f t="shared" si="2"/>
-        <v>3.4857142857140104</v>
-      </c>
-      <c r="H9" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.3714285714280265</v>
-      </c>
-      <c r="I9" s="36">
-        <f xml:space="preserve"> -(G9*PCT)</f>
-        <v>-0.87142857142850261</v>
-      </c>
-      <c r="J9" s="36">
-        <f xml:space="preserve"> -(H9*PCT)</f>
-        <v>0.34285714285700664</v>
-      </c>
-      <c r="K9" s="54">
-        <f t="shared" si="0"/>
         <v>-1.2142857142855092</v>
       </c>
       <c r="L9" s="36">
         <v>1.1000000000000001</v>
       </c>
       <c r="M9" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.3142857142855093</v>
       </c>
       <c r="N9" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R9">
@@ -2771,42 +2836,42 @@
         <v>225.4</v>
       </c>
       <c r="F10" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G10" s="42">
-        <f t="shared" si="2"/>
-        <v>-3.7999999999999829</v>
-      </c>
-      <c r="H10" s="43">
         <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
+      <c r="G10" s="42">
+        <f t="shared" si="4"/>
+        <v>-3.7999999999999829</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.5</v>
+      </c>
       <c r="I10" s="36">
-        <f xml:space="preserve"> -(G10*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.94999999999999574</v>
       </c>
       <c r="J10" s="36">
-        <f xml:space="preserve"> -(H10*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="K10" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8249999999999957</v>
       </c>
       <c r="L10" s="36">
         <v>0.5</v>
       </c>
       <c r="M10" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3249999999999957</v>
       </c>
       <c r="N10" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R10">
@@ -2839,42 +2904,42 @@
         <v>218.2</v>
       </c>
       <c r="F11" s="41">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="4"/>
+        <v>6.7142857142859782</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.6785714285714946</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="1"/>
-        <v>1.0999999999999943</v>
-      </c>
-      <c r="G11" s="42">
+        <v>0.27499999999999858</v>
+      </c>
+      <c r="K11" s="54">
         <f t="shared" si="2"/>
-        <v>6.7142857142859782</v>
-      </c>
-      <c r="H11" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.0999999999999943</v>
-      </c>
-      <c r="I11" s="36">
-        <f xml:space="preserve"> -(G11*PCT)</f>
-        <v>-1.6785714285714946</v>
-      </c>
-      <c r="J11" s="36">
-        <f xml:space="preserve"> -(H11*PCT)</f>
-        <v>0.27499999999999858</v>
-      </c>
-      <c r="K11" s="54">
-        <f t="shared" si="0"/>
         <v>-1.9535714285714931</v>
       </c>
       <c r="L11" s="36">
         <v>-1.6</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.35357142857149304</v>
       </c>
       <c r="N11" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11">
@@ -2907,42 +2972,42 @@
         <v>227.5</v>
       </c>
       <c r="F12" s="41">
-        <f t="shared" si="1"/>
-        <v>-2.0999999999999943</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" si="2"/>
-        <v>-2.9857142857140104</v>
-      </c>
-      <c r="H12" s="43">
         <f t="shared" si="3"/>
         <v>-2.0999999999999943</v>
       </c>
+      <c r="G12" s="42">
+        <f t="shared" si="4"/>
+        <v>-2.9857142857140104</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="5"/>
+        <v>-2.0999999999999943</v>
+      </c>
       <c r="I12" s="36">
-        <f xml:space="preserve"> -(G12*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.74642857142850261</v>
       </c>
       <c r="J12" s="36">
-        <f xml:space="preserve"> -(H12*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.52499999999999858</v>
       </c>
       <c r="K12" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2714285714285012</v>
       </c>
       <c r="L12" s="36">
         <v>-0.2</v>
       </c>
       <c r="M12" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4714285714285011</v>
       </c>
       <c r="N12" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R12">
@@ -2975,42 +3040,42 @@
         <v>218.8</v>
       </c>
       <c r="F13" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.5999999999999943</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" si="2"/>
-        <v>-8.1142857142859839</v>
-      </c>
-      <c r="H13" s="43">
         <f t="shared" si="3"/>
         <v>-3.5999999999999943</v>
       </c>
+      <c r="G13" s="42">
+        <f t="shared" si="4"/>
+        <v>-8.1142857142859839</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.5999999999999943</v>
+      </c>
       <c r="I13" s="36">
-        <f xml:space="preserve"> -(G13*PCT)</f>
+        <f t="shared" si="0"/>
         <v>2.028571428571496</v>
       </c>
       <c r="J13" s="36">
-        <f xml:space="preserve"> -(H13*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999858</v>
       </c>
       <c r="K13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9285714285714946</v>
       </c>
       <c r="L13" s="36">
         <v>-0.2</v>
       </c>
       <c r="M13" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1285714285714947</v>
       </c>
       <c r="N13" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R13">
@@ -3018,11 +3083,11 @@
         <v>229.3</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:T13" si="7">AVERAGE(S3:S12)</f>
+        <f t="shared" ref="S13:T13" si="9">AVERAGE(S3:S12)</f>
         <v>232.6</v>
       </c>
       <c r="T13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>223.36843563576213</v>
       </c>
     </row>
@@ -3043,42 +3108,42 @@
         <v>223.7</v>
       </c>
       <c r="F14" s="41">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="4"/>
+        <v>5.0714285714289815</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2678571428572454</v>
+      </c>
+      <c r="J14" s="36">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G14" s="42">
+        <v>-0.125</v>
+      </c>
+      <c r="K14" s="54">
         <f t="shared" si="2"/>
-        <v>5.0714285714289815</v>
-      </c>
-      <c r="H14" s="43">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="36">
-        <f xml:space="preserve"> -(G14*PCT)</f>
-        <v>-1.2678571428572454</v>
-      </c>
-      <c r="J14" s="36">
-        <f xml:space="preserve"> -(H14*PCT)</f>
-        <v>-0.125</v>
-      </c>
-      <c r="K14" s="54">
-        <f t="shared" si="0"/>
         <v>-1.1428571428572454</v>
       </c>
       <c r="L14" s="36">
         <v>-0.7</v>
       </c>
       <c r="M14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.44285714285724542</v>
       </c>
       <c r="N14" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3099,45 +3164,45 @@
         <v>234.6</v>
       </c>
       <c r="F15" s="41">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="4"/>
+        <v>6.8285714285709957</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="5"/>
+        <v>-6.1571428571419915</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.7071428571427489</v>
+      </c>
+      <c r="J15" s="36">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="G15" s="42">
+        <v>1.5392857142854979</v>
+      </c>
+      <c r="K15" s="54">
         <f t="shared" si="2"/>
-        <v>6.8285714285709957</v>
-      </c>
-      <c r="H15" s="43">
-        <f t="shared" si="3"/>
-        <v>-6.1571428571419915</v>
-      </c>
-      <c r="I15" s="36">
-        <f xml:space="preserve"> -(G15*PCT)</f>
-        <v>-1.7071428571427489</v>
-      </c>
-      <c r="J15" s="36">
-        <f xml:space="preserve"> -(H15*PCT)</f>
-        <v>1.5392857142854979</v>
-      </c>
-      <c r="K15" s="54">
-        <f t="shared" si="0"/>
         <v>-3.2464285714282468</v>
       </c>
       <c r="L15" s="36">
         <v>0.8</v>
       </c>
       <c r="M15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.0464285714282466</v>
       </c>
       <c r="N15" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O15">
         <v>-1</v>
       </c>
       <c r="P15" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3158,42 +3223,42 @@
         <v>225.6</v>
       </c>
       <c r="F16" s="41">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="4"/>
+        <v>12.257142857142981</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="5"/>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="0"/>
+        <v>-3.0642857142857451</v>
+      </c>
+      <c r="J16" s="36">
         <f t="shared" si="1"/>
-        <v>4.4000000000000057</v>
-      </c>
-      <c r="G16" s="42">
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="K16" s="54">
         <f t="shared" si="2"/>
-        <v>12.257142857142981</v>
-      </c>
-      <c r="H16" s="43">
-        <f t="shared" si="3"/>
-        <v>-4.4000000000000057</v>
-      </c>
-      <c r="I16" s="36">
-        <f xml:space="preserve"> -(G16*PCT)</f>
-        <v>-3.0642857142857451</v>
-      </c>
-      <c r="J16" s="36">
-        <f xml:space="preserve"> -(H16*PCT)</f>
-        <v>1.1000000000000014</v>
-      </c>
-      <c r="K16" s="54">
-        <f t="shared" si="0"/>
         <v>-4.1642857142857466</v>
       </c>
       <c r="L16" s="36">
         <v>-3.7</v>
       </c>
       <c r="M16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.46428571428574639</v>
       </c>
       <c r="N16" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R16" t="s">
@@ -3217,42 +3282,42 @@
         <v>231.7</v>
       </c>
       <c r="F17" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>9.2142857142859782</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="5"/>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" si="0"/>
+        <v>-2.3035714285714946</v>
+      </c>
+      <c r="J17" s="36">
         <f t="shared" si="1"/>
-        <v>5.5999999999999943</v>
-      </c>
-      <c r="G17" s="42">
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="K17" s="54">
         <f t="shared" si="2"/>
-        <v>9.2142857142859782</v>
-      </c>
-      <c r="H17" s="43">
-        <f t="shared" si="3"/>
-        <v>-5.5999999999999943</v>
-      </c>
-      <c r="I17" s="36">
-        <f xml:space="preserve"> -(G17*PCT)</f>
-        <v>-2.3035714285714946</v>
-      </c>
-      <c r="J17" s="36">
-        <f xml:space="preserve"> -(H17*PCT)</f>
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="K17" s="54">
-        <f t="shared" si="0"/>
         <v>-3.7035714285714931</v>
       </c>
       <c r="L17" s="36">
         <v>-0.2</v>
       </c>
       <c r="M17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.503571428571493</v>
       </c>
       <c r="N17" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3273,23 +3338,23 @@
         <v>223</v>
       </c>
       <c r="F18" s="41">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.6000000000000227</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="J18" s="36">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G18" s="42">
-        <f t="shared" si="2"/>
-        <v>4.8000000000000114</v>
-      </c>
-      <c r="H18" s="43">
-        <f t="shared" si="3"/>
-        <v>-3.6000000000000227</v>
-      </c>
-      <c r="I18" s="36">
-        <f xml:space="preserve"> -(G18*PCT)</f>
-        <v>-1.2000000000000028</v>
-      </c>
-      <c r="J18" s="36">
-        <f xml:space="preserve"> -(H18*PCT)</f>
         <v>0.90000000000000568</v>
       </c>
       <c r="K18" s="54">
@@ -3300,15 +3365,15 @@
         <v>-3.3</v>
       </c>
       <c r="M18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1999999999999913</v>
       </c>
       <c r="N18" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3329,42 +3394,42 @@
         <v>232</v>
       </c>
       <c r="F19" s="41">
+        <f t="shared" si="3"/>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="4"/>
+        <v>2.6571428571429863</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="5"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.66428571428574656</v>
+      </c>
+      <c r="J19" s="36">
         <f t="shared" si="1"/>
-        <v>-2.9000000000000057</v>
-      </c>
-      <c r="G19" s="42">
-        <f t="shared" si="2"/>
-        <v>2.6571428571429863</v>
-      </c>
-      <c r="H19" s="43">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000057</v>
-      </c>
-      <c r="I19" s="36">
-        <f xml:space="preserve"> -(G19*PCT)</f>
-        <v>-0.66428571428574656</v>
-      </c>
-      <c r="J19" s="36">
-        <f xml:space="preserve"> -(H19*PCT)</f>
         <v>-0.72500000000000142</v>
       </c>
       <c r="K19" s="54">
-        <f t="shared" ref="K19:K32" si="8">IF(I19&lt;0, I19-J19,I19+J19)</f>
+        <f t="shared" ref="K19:K32" si="10">IF(I19&lt;0, I19-J19,I19+J19)</f>
         <v>6.0714285714254856E-2</v>
       </c>
       <c r="L19" s="36">
         <v>1.1000000000000001</v>
       </c>
       <c r="M19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.0392857142857452</v>
       </c>
       <c r="N19" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3385,42 +3450,42 @@
         <v>224.7</v>
       </c>
       <c r="F20" s="41">
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.875</v>
+      </c>
+      <c r="J20" s="36">
         <f t="shared" si="1"/>
-        <v>-1.4000000000000057</v>
-      </c>
-      <c r="G20" s="42">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="H20" s="43">
-        <f t="shared" si="3"/>
-        <v>1.4000000000000057</v>
-      </c>
-      <c r="I20" s="36">
-        <f xml:space="preserve"> -(G20*PCT)</f>
-        <v>-0.875</v>
-      </c>
-      <c r="J20" s="36">
-        <f xml:space="preserve"> -(H20*PCT)</f>
         <v>-0.35000000000000142</v>
       </c>
       <c r="K20" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.52499999999999858</v>
       </c>
       <c r="L20" s="36">
         <v>-0.1</v>
       </c>
       <c r="M20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.4249999999999986</v>
       </c>
       <c r="N20" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3441,42 +3506,42 @@
         <v>238.1</v>
       </c>
       <c r="F21" s="41">
-        <f t="shared" si="1"/>
-        <v>5.7999999999999829</v>
-      </c>
-      <c r="G21" s="42">
-        <f t="shared" si="2"/>
-        <v>-10.385714285714016</v>
-      </c>
-      <c r="H21" s="43">
         <f t="shared" si="3"/>
         <v>5.7999999999999829</v>
       </c>
+      <c r="G21" s="42">
+        <f t="shared" si="4"/>
+        <v>-10.385714285714016</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="5"/>
+        <v>5.7999999999999829</v>
+      </c>
       <c r="I21" s="36">
-        <f xml:space="preserve"> -(G21*PCT)</f>
+        <f t="shared" si="0"/>
         <v>2.596428571428504</v>
       </c>
       <c r="J21" s="36">
-        <f xml:space="preserve"> -(H21*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-1.4499999999999957</v>
       </c>
       <c r="K21" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1464285714285083</v>
       </c>
       <c r="L21" s="36">
         <v>1.4</v>
       </c>
       <c r="M21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25357142857149162</v>
       </c>
       <c r="N21" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3497,42 +3562,42 @@
         <v>220.4</v>
       </c>
       <c r="F22" s="41">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="4"/>
+        <v>5.7142857142991943E-2</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="5"/>
+        <v>2.6857142857140275</v>
+      </c>
+      <c r="I22" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.4285714285747986E-2</v>
+      </c>
+      <c r="J22" s="36">
         <f t="shared" si="1"/>
-        <v>2.8000000000000114</v>
-      </c>
-      <c r="G22" s="42">
-        <f t="shared" si="2"/>
-        <v>5.7142857142991943E-2</v>
-      </c>
-      <c r="H22" s="43">
-        <f t="shared" si="3"/>
-        <v>2.6857142857140275</v>
-      </c>
-      <c r="I22" s="36">
-        <f xml:space="preserve"> -(G22*PCT)</f>
-        <v>-1.4285714285747986E-2</v>
-      </c>
-      <c r="J22" s="36">
-        <f xml:space="preserve"> -(H22*PCT)</f>
         <v>-0.67142857142850687</v>
       </c>
       <c r="K22" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.65714285714275888</v>
       </c>
       <c r="L22" s="36">
         <v>-0.9</v>
       </c>
       <c r="M22" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5571428571427588</v>
       </c>
       <c r="N22" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3553,42 +3618,42 @@
         <v>221.2</v>
       </c>
       <c r="F23" s="41">
+        <f t="shared" si="3"/>
+        <v>-3.7000000000000171</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="4"/>
+        <v>4.7142857142859782</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="5"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="I23" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.1785714285714946</v>
+      </c>
+      <c r="J23" s="36">
         <f t="shared" si="1"/>
-        <v>-3.7000000000000171</v>
-      </c>
-      <c r="G23" s="42">
-        <f t="shared" si="2"/>
-        <v>4.7142857142859782</v>
-      </c>
-      <c r="H23" s="43">
-        <f t="shared" si="3"/>
-        <v>3.7000000000000171</v>
-      </c>
-      <c r="I23" s="36">
-        <f xml:space="preserve"> -(G23*PCT)</f>
-        <v>-1.1785714285714946</v>
-      </c>
-      <c r="J23" s="36">
-        <f xml:space="preserve"> -(H23*PCT)</f>
         <v>-0.92500000000000426</v>
       </c>
       <c r="K23" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.25357142857149029</v>
       </c>
       <c r="L23" s="36">
         <v>-1.7</v>
       </c>
       <c r="M23" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4464285714285097</v>
       </c>
       <c r="N23" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3609,42 +3674,42 @@
         <v>219.6</v>
       </c>
       <c r="F24" s="41">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999829</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" si="4"/>
+        <v>4.9714285714289872</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="5"/>
+        <v>-2.2999999999999829</v>
+      </c>
+      <c r="I24" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2428571428572468</v>
+      </c>
+      <c r="J24" s="36">
         <f t="shared" si="1"/>
-        <v>2.2999999999999829</v>
-      </c>
-      <c r="G24" s="42">
-        <f t="shared" si="2"/>
-        <v>4.9714285714289872</v>
-      </c>
-      <c r="H24" s="43">
-        <f t="shared" si="3"/>
-        <v>-2.2999999999999829</v>
-      </c>
-      <c r="I24" s="36">
-        <f xml:space="preserve"> -(G24*PCT)</f>
-        <v>-1.2428571428572468</v>
-      </c>
-      <c r="J24" s="36">
-        <f xml:space="preserve"> -(H24*PCT)</f>
         <v>0.57499999999999574</v>
       </c>
       <c r="K24" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.8178571428572425</v>
       </c>
       <c r="L24" s="36">
         <v>-1.2</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.61785714285724258</v>
       </c>
       <c r="N24" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3665,42 +3730,42 @@
         <v>227.1</v>
       </c>
       <c r="F25" s="41">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="G25" s="42">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="I25" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.47500000000000142</v>
+      </c>
+      <c r="J25" s="36">
         <f t="shared" si="1"/>
-        <v>2.1999999999999886</v>
-      </c>
-      <c r="G25" s="42">
-        <f t="shared" si="2"/>
-        <v>1.9000000000000057</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.6000000000000227</v>
-      </c>
-      <c r="I25" s="36">
-        <f xml:space="preserve"> -(G25*PCT)</f>
-        <v>-0.47500000000000142</v>
-      </c>
-      <c r="J25" s="36">
-        <f xml:space="preserve"> -(H25*PCT)</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="K25" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.87500000000000711</v>
       </c>
       <c r="L25" s="36">
         <v>-0.2</v>
       </c>
       <c r="M25" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.67500000000000715</v>
       </c>
       <c r="N25" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3721,45 +3786,45 @@
         <v>233.7</v>
       </c>
       <c r="F26" s="41">
+        <f t="shared" si="3"/>
+        <v>9.7999999999999829</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="4"/>
+        <v>5.6428571428569967</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.4857142857140104</v>
+      </c>
+      <c r="I26" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.4107142857142492</v>
+      </c>
+      <c r="J26" s="36">
         <f t="shared" si="1"/>
-        <v>9.7999999999999829</v>
-      </c>
-      <c r="G26" s="42">
-        <f t="shared" si="2"/>
-        <v>5.6428571428569967</v>
-      </c>
-      <c r="H26" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.4857142857140104</v>
-      </c>
-      <c r="I26" s="36">
-        <f xml:space="preserve"> -(G26*PCT)</f>
-        <v>-1.4107142857142492</v>
-      </c>
-      <c r="J26" s="36">
-        <f xml:space="preserve"> -(H26*PCT)</f>
         <v>0.37142857142850261</v>
       </c>
       <c r="K26" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.7821428571427518</v>
       </c>
       <c r="L26" s="36">
         <v>-1.4</v>
       </c>
       <c r="M26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.38214285714275187</v>
       </c>
       <c r="N26" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O26">
         <v>-1</v>
       </c>
       <c r="P26" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3780,42 +3845,42 @@
         <v>234.7</v>
       </c>
       <c r="F27" s="41">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="4"/>
+        <v>7.6428571428569967</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="I27" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.9107142857142492</v>
+      </c>
+      <c r="J27" s="36">
         <f t="shared" si="1"/>
-        <v>3.0999999999999943</v>
-      </c>
-      <c r="G27" s="42">
-        <f t="shared" si="2"/>
-        <v>7.6428571428569967</v>
-      </c>
-      <c r="H27" s="43">
-        <f t="shared" si="3"/>
-        <v>-3.0999999999999943</v>
-      </c>
-      <c r="I27" s="36">
-        <f xml:space="preserve"> -(G27*PCT)</f>
-        <v>-1.9107142857142492</v>
-      </c>
-      <c r="J27" s="36">
-        <f xml:space="preserve"> -(H27*PCT)</f>
         <v>0.77499999999999858</v>
       </c>
       <c r="K27" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.6857142857142478</v>
       </c>
       <c r="L27" s="36">
         <v>-0.7</v>
       </c>
       <c r="M27" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.9857142857142478</v>
       </c>
       <c r="N27" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3836,42 +3901,42 @@
         <v>225.7</v>
       </c>
       <c r="F28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.64285714285702511</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="J28" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="42">
-        <f t="shared" si="2"/>
-        <v>-0.64285714285702511</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="36">
-        <f xml:space="preserve"> -(G28*PCT)</f>
-        <v>0.16071428571425628</v>
-      </c>
-      <c r="J28" s="36">
-        <f xml:space="preserve"> -(H28*PCT)</f>
-        <v>0</v>
-      </c>
       <c r="K28" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16071428571425628</v>
       </c>
       <c r="L28" s="36">
         <v>-0.5</v>
       </c>
       <c r="M28" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66071428571425628</v>
       </c>
       <c r="N28" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3892,42 +3957,42 @@
         <v>229.9</v>
       </c>
       <c r="F29" s="41">
-        <f t="shared" si="1"/>
-        <v>-4.2999999999999829</v>
-      </c>
-      <c r="G29" s="42">
-        <f t="shared" si="2"/>
-        <v>-12.871428571428993</v>
-      </c>
-      <c r="H29" s="43">
         <f t="shared" si="3"/>
         <v>-4.2999999999999829</v>
       </c>
+      <c r="G29" s="42">
+        <f t="shared" si="4"/>
+        <v>-12.871428571428993</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="5"/>
+        <v>-4.2999999999999829</v>
+      </c>
       <c r="I29" s="36">
-        <f xml:space="preserve"> -(G29*PCT)</f>
+        <f t="shared" si="0"/>
         <v>3.2178571428572482</v>
       </c>
       <c r="J29" s="36">
-        <f xml:space="preserve"> -(H29*PCT)</f>
+        <f t="shared" si="1"/>
         <v>1.0749999999999957</v>
       </c>
       <c r="K29" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.292857142857244</v>
       </c>
       <c r="L29" s="36">
         <v>4.7</v>
       </c>
       <c r="M29" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.40714285714275622</v>
       </c>
       <c r="N29" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3948,42 +4013,42 @@
         <v>229</v>
       </c>
       <c r="F30" s="41">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="4"/>
+        <v>14.228571428571001</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="I30" s="36">
+        <f t="shared" si="0"/>
+        <v>-3.5571428571427504</v>
+      </c>
+      <c r="J30" s="36">
         <f t="shared" si="1"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="G30" s="42">
-        <f t="shared" si="2"/>
-        <v>14.228571428571001</v>
-      </c>
-      <c r="H30" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.8000000000000114</v>
-      </c>
-      <c r="I30" s="36">
-        <f xml:space="preserve"> -(G30*PCT)</f>
-        <v>-3.5571428571427504</v>
-      </c>
-      <c r="J30" s="36">
-        <f xml:space="preserve"> -(H30*PCT)</f>
         <v>0.45000000000000284</v>
       </c>
       <c r="K30" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0071428571427532</v>
       </c>
       <c r="L30" s="36">
         <v>-2.6</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.4071428571427531</v>
       </c>
       <c r="N30" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q30" t="s">
@@ -4016,45 +4081,45 @@
         <v>232.8</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="G31" s="42">
-        <f t="shared" si="2"/>
-        <v>-0.82857142857099575</v>
-      </c>
-      <c r="H31" s="43">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
+      <c r="G31" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.82857142857099575</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
       <c r="I31" s="36">
-        <f xml:space="preserve"> -(G31*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.20714285714274894</v>
       </c>
       <c r="J31" s="36">
-        <f xml:space="preserve"> -(H31*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-1.875</v>
       </c>
       <c r="K31" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.6678571428572511</v>
       </c>
       <c r="L31" s="36">
         <v>0.1</v>
       </c>
       <c r="M31" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.7678571428572512</v>
       </c>
       <c r="N31" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O31">
         <v>-0.5</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q31" s="5">
@@ -4087,42 +4152,42 @@
         <v>222.5</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="1"/>
-        <v>-11.199999999999989</v>
-      </c>
-      <c r="G32" s="45">
-        <f t="shared" si="2"/>
-        <v>-12.271428571428999</v>
-      </c>
-      <c r="H32" s="46">
         <f t="shared" si="3"/>
         <v>-11.199999999999989</v>
       </c>
+      <c r="G32" s="45">
+        <f t="shared" si="4"/>
+        <v>-12.271428571428999</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="5"/>
+        <v>-11.199999999999989</v>
+      </c>
       <c r="I32" s="36">
-        <f xml:space="preserve"> -(G32*PCT)</f>
+        <f t="shared" si="0"/>
         <v>3.0678571428572496</v>
       </c>
       <c r="J32" s="36">
-        <f xml:space="preserve"> -(H32*PCT)</f>
+        <f t="shared" si="1"/>
         <v>2.7999999999999972</v>
       </c>
       <c r="K32" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8678571428572468</v>
       </c>
       <c r="L32" s="36">
         <v>3.1</v>
       </c>
       <c r="M32" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7678571428572467</v>
       </c>
       <c r="N32" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q32" s="5">
@@ -4140,23 +4205,23 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
-        <f t="shared" ref="C33:G33" si="9">AVERAGE(C3:C32)</f>
+        <f t="shared" ref="C33:G33" si="11">AVERAGE(C3:C32)</f>
         <v>226.20476190476185</v>
       </c>
       <c r="D33" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>226.23333333333329</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>227.10333333333332</v>
       </c>
       <c r="F33" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.86999999999999889</v>
       </c>
       <c r="G33" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89857142857146166</v>
       </c>
       <c r="H33" s="37">
@@ -4193,15 +4258,15 @@
         <v>222.54086797947701</v>
       </c>
       <c r="F35" s="44">
-        <f t="shared" ref="F35" si="10">E35-D35</f>
+        <f t="shared" ref="F35" si="12">E35-D35</f>
         <v>-11.173417734808993</v>
       </c>
       <c r="G35" s="45">
-        <f t="shared" ref="G35" si="11">E35-C35</f>
+        <f t="shared" ref="G35" si="13">E35-C35</f>
         <v>-11.630560591951991</v>
       </c>
       <c r="H35" s="46">
-        <f t="shared" ref="H35" si="12" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
+        <f t="shared" ref="H35" si="14" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
         <v>-11.173417734808993</v>
       </c>
       <c r="I35" s="36">
@@ -4220,11 +4285,231 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
       <c r="P35" t="str">
-        <f t="shared" ref="P35" si="13">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
+        <f t="shared" ref="P35" si="15">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917425E8-4883-4805-B2B8-D935AC6B866D}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE74596-C545-49CE-9443-10B42B99B354}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10781,15 +11066,15 @@
         <v>-0.69999999999998863</v>
       </c>
       <c r="I3" s="36">
-        <f xml:space="preserve"> -(G3*PCT)</f>
+        <f t="shared" ref="I3:I32" si="0" xml:space="preserve"> -(G3*PCT)</f>
         <v>2.1821428571427504</v>
       </c>
       <c r="J3" s="36">
-        <f xml:space="preserve"> -(H3*PCT)</f>
+        <f t="shared" ref="J3:J32" si="1" xml:space="preserve"> -(H3*PCT)</f>
         <v>0.17499999999999716</v>
       </c>
       <c r="K3" s="54">
-        <f t="shared" ref="K3:K17" si="0">IF(I3&lt;0, I3-J3,I3+J3)</f>
+        <f t="shared" ref="K3:K17" si="2">IF(I3&lt;0, I3-J3,I3+J3)</f>
         <v>2.3571428571427475</v>
       </c>
       <c r="L3" s="36">
@@ -10837,42 +11122,42 @@
         <v>221.8</v>
       </c>
       <c r="F4" s="41">
-        <f t="shared" ref="F4:F32" si="1">E4-D4</f>
+        <f t="shared" ref="F4:F32" si="3">E4-D4</f>
         <v>-3.1999999999999886</v>
       </c>
       <c r="G4" s="42">
-        <f t="shared" ref="G4:G32" si="2">E4-C4</f>
+        <f t="shared" ref="G4:G32" si="4">E4-C4</f>
         <v>1.3142857142860009</v>
       </c>
       <c r="H4" s="43">
-        <f t="shared" ref="H4:H32" si="3" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
+        <f t="shared" ref="H4:H32" si="5" xml:space="preserve"> ABS(D4-C4) - ABS(E4-C4)</f>
         <v>3.1999999999999886</v>
       </c>
       <c r="I4" s="36">
-        <f xml:space="preserve"> -(G4*PCT)</f>
+        <f t="shared" si="0"/>
         <v>-0.32857142857150023</v>
       </c>
       <c r="J4" s="36">
-        <f xml:space="preserve"> -(H4*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="K4" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.47142857142849692</v>
       </c>
       <c r="L4" s="36">
         <v>-0.6</v>
       </c>
       <c r="M4" s="36">
-        <f t="shared" ref="M4:M32" si="4">K4-L4</f>
+        <f t="shared" ref="M4:M32" si="6">K4-L4</f>
         <v>1.071428571428497</v>
       </c>
       <c r="N4" s="36" t="b">
-        <f t="shared" ref="N4:N32" si="5">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
+        <f t="shared" ref="N4:N32" si="7">IF(ABS(M4) &gt; 0.1,TRUE, "")</f>
         <v>1</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P32" si="6">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
+        <f t="shared" ref="P4:P32" si="8">IF(OR( AND( D4&lt;C4, E4&gt;C4), AND(D4&gt;C4, E4&lt;C4)) = FALSE, " ", TRUE)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R4">
@@ -10905,42 +11190,42 @@
         <v>234.8</v>
       </c>
       <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="G5" s="42">
-        <f t="shared" si="2"/>
-        <v>-3.1142857142859839</v>
-      </c>
-      <c r="H5" s="43">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
+      <c r="G5" s="42">
+        <f t="shared" si="4"/>
+        <v>-3.1142857142859839</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
       <c r="I5" s="36">
-        <f xml:space="preserve"> -(G5*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.77857142857149597</v>
       </c>
       <c r="J5" s="36">
-        <f xml:space="preserve"> -(H5*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K5" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.028571428571496</v>
       </c>
       <c r="L5" s="36">
         <v>-0.1</v>
       </c>
       <c r="M5" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1285714285714961</v>
       </c>
       <c r="N5" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R5">
@@ -10973,42 +11258,42 @@
         <v>229.7</v>
       </c>
       <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="G6" s="42">
-        <f t="shared" si="2"/>
-        <v>-2.6428571428570251</v>
-      </c>
-      <c r="H6" s="43">
         <f t="shared" si="3"/>
         <v>1.5999999999999943</v>
       </c>
+      <c r="G6" s="42">
+        <f t="shared" si="4"/>
+        <v>-2.6428571428570251</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999943</v>
+      </c>
       <c r="I6" s="36">
-        <f xml:space="preserve"> -(G6*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.66071428571425628</v>
       </c>
       <c r="J6" s="36">
-        <f xml:space="preserve"> -(H6*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-0.39999999999999858</v>
       </c>
       <c r="K6" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2607142857142577</v>
       </c>
       <c r="L6" s="36">
         <v>0.6</v>
       </c>
       <c r="M6" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.33928571428574228</v>
       </c>
       <c r="N6" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R6">
@@ -11041,42 +11326,42 @@
         <v>223.4</v>
       </c>
       <c r="F7" s="41">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" si="4"/>
+        <v>4.4857142857140104</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.1214285714285026</v>
+      </c>
+      <c r="J7" s="36">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="G7" s="42">
+        <v>-0.75</v>
+      </c>
+      <c r="K7" s="54">
         <f t="shared" si="2"/>
-        <v>4.4857142857140104</v>
-      </c>
-      <c r="H7" s="43">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I7" s="36">
-        <f xml:space="preserve"> -(G7*PCT)</f>
-        <v>-1.1214285714285026</v>
-      </c>
-      <c r="J7" s="36">
-        <f xml:space="preserve"> -(H7*PCT)</f>
-        <v>-0.75</v>
-      </c>
-      <c r="K7" s="54">
-        <f t="shared" si="0"/>
         <v>-0.37142857142850261</v>
       </c>
       <c r="L7" s="36">
         <v>0.4</v>
       </c>
       <c r="M7" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.77142857142850263</v>
       </c>
       <c r="N7" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R7">
@@ -11109,42 +11394,42 @@
         <v>223.2</v>
       </c>
       <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-      <c r="G8" s="42">
-        <f t="shared" si="2"/>
-        <v>-6.1428571428570251</v>
-      </c>
-      <c r="H8" s="43">
         <f t="shared" si="3"/>
         <v>9.9999999999994316E-2</v>
       </c>
+      <c r="G8" s="42">
+        <f t="shared" si="4"/>
+        <v>-6.1428571428570251</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="5"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
       <c r="I8" s="36">
-        <f xml:space="preserve"> -(G8*PCT)</f>
+        <f t="shared" si="0"/>
         <v>1.5357142857142563</v>
       </c>
       <c r="J8" s="36">
-        <f xml:space="preserve"> -(H8*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-2.4999999999998579E-2</v>
       </c>
       <c r="K8" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5107142857142577</v>
       </c>
       <c r="L8" s="36">
         <v>1.8</v>
       </c>
       <c r="M8" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.28928571428574235</v>
       </c>
       <c r="N8" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R8">
@@ -11177,42 +11462,42 @@
         <v>235.4</v>
       </c>
       <c r="F9" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="4"/>
+        <v>3.4857142857140104</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.3714285714280265</v>
+      </c>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.87142857142850261</v>
+      </c>
+      <c r="J9" s="36">
         <f t="shared" si="1"/>
-        <v>5.5999999999999943</v>
-      </c>
-      <c r="G9" s="42">
+        <v>0.34285714285700664</v>
+      </c>
+      <c r="K9" s="54">
         <f t="shared" si="2"/>
-        <v>3.4857142857140104</v>
-      </c>
-      <c r="H9" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.3714285714280265</v>
-      </c>
-      <c r="I9" s="36">
-        <f xml:space="preserve"> -(G9*PCT)</f>
-        <v>-0.87142857142850261</v>
-      </c>
-      <c r="J9" s="36">
-        <f xml:space="preserve"> -(H9*PCT)</f>
-        <v>0.34285714285700664</v>
-      </c>
-      <c r="K9" s="54">
-        <f t="shared" si="0"/>
         <v>-1.2142857142855092</v>
       </c>
       <c r="L9" s="36">
         <v>1.1000000000000001</v>
       </c>
       <c r="M9" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.3142857142855093</v>
       </c>
       <c r="N9" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R9">
@@ -11245,42 +11530,42 @@
         <v>225.4</v>
       </c>
       <c r="F10" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G10" s="42">
-        <f t="shared" si="2"/>
-        <v>-3.7999999999999829</v>
-      </c>
-      <c r="H10" s="43">
         <f t="shared" si="3"/>
         <v>-3.5</v>
       </c>
+      <c r="G10" s="42">
+        <f t="shared" si="4"/>
+        <v>-3.7999999999999829</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.5</v>
+      </c>
       <c r="I10" s="36">
-        <f xml:space="preserve"> -(G10*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.94999999999999574</v>
       </c>
       <c r="J10" s="36">
-        <f xml:space="preserve"> -(H10*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="K10" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8249999999999957</v>
       </c>
       <c r="L10" s="36">
         <v>0.5</v>
       </c>
       <c r="M10" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3249999999999957</v>
       </c>
       <c r="N10" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R10">
@@ -11313,42 +11598,42 @@
         <v>218.2</v>
       </c>
       <c r="F11" s="41">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="4"/>
+        <v>6.7142857142859782</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.6785714285714946</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="1"/>
-        <v>1.0999999999999943</v>
-      </c>
-      <c r="G11" s="42">
+        <v>0.27499999999999858</v>
+      </c>
+      <c r="K11" s="54">
         <f t="shared" si="2"/>
-        <v>6.7142857142859782</v>
-      </c>
-      <c r="H11" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.0999999999999943</v>
-      </c>
-      <c r="I11" s="36">
-        <f xml:space="preserve"> -(G11*PCT)</f>
-        <v>-1.6785714285714946</v>
-      </c>
-      <c r="J11" s="36">
-        <f xml:space="preserve"> -(H11*PCT)</f>
-        <v>0.27499999999999858</v>
-      </c>
-      <c r="K11" s="54">
-        <f t="shared" si="0"/>
         <v>-1.9535714285714931</v>
       </c>
       <c r="L11" s="36">
         <v>-1.6</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.35357142857149304</v>
       </c>
       <c r="N11" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R11">
@@ -11381,42 +11666,42 @@
         <v>227.5</v>
       </c>
       <c r="F12" s="41">
-        <f t="shared" si="1"/>
-        <v>-2.0999999999999943</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" si="2"/>
-        <v>-2.9857142857140104</v>
-      </c>
-      <c r="H12" s="43">
         <f t="shared" si="3"/>
         <v>-2.0999999999999943</v>
       </c>
+      <c r="G12" s="42">
+        <f t="shared" si="4"/>
+        <v>-2.9857142857140104</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="5"/>
+        <v>-2.0999999999999943</v>
+      </c>
       <c r="I12" s="36">
-        <f xml:space="preserve"> -(G12*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.74642857142850261</v>
       </c>
       <c r="J12" s="36">
-        <f xml:space="preserve"> -(H12*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.52499999999999858</v>
       </c>
       <c r="K12" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2714285714285012</v>
       </c>
       <c r="L12" s="36">
         <v>-0.2</v>
       </c>
       <c r="M12" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4714285714285011</v>
       </c>
       <c r="N12" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R12">
@@ -11449,42 +11734,42 @@
         <v>218.8</v>
       </c>
       <c r="F13" s="41">
-        <f t="shared" si="1"/>
-        <v>-3.5999999999999943</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" si="2"/>
-        <v>-8.1142857142859839</v>
-      </c>
-      <c r="H13" s="43">
         <f t="shared" si="3"/>
         <v>-3.5999999999999943</v>
       </c>
+      <c r="G13" s="42">
+        <f t="shared" si="4"/>
+        <v>-8.1142857142859839</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.5999999999999943</v>
+      </c>
       <c r="I13" s="36">
-        <f xml:space="preserve"> -(G13*PCT)</f>
+        <f t="shared" si="0"/>
         <v>2.028571428571496</v>
       </c>
       <c r="J13" s="36">
-        <f xml:space="preserve"> -(H13*PCT)</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999858</v>
       </c>
       <c r="K13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9285714285714946</v>
       </c>
       <c r="L13" s="36">
         <v>-0.2</v>
       </c>
       <c r="M13" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1285714285714947</v>
       </c>
       <c r="N13" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R13">
@@ -11492,11 +11777,11 @@
         <v>229.3</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:T13" si="7">AVERAGE(S3:S12)</f>
+        <f t="shared" ref="S13:T13" si="9">AVERAGE(S3:S12)</f>
         <v>232.6</v>
       </c>
       <c r="T13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>223.36843563576213</v>
       </c>
     </row>
@@ -11517,42 +11802,42 @@
         <v>223.7</v>
       </c>
       <c r="F14" s="41">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="4"/>
+        <v>5.0714285714289815</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2678571428572454</v>
+      </c>
+      <c r="J14" s="36">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G14" s="42">
+        <v>-0.125</v>
+      </c>
+      <c r="K14" s="54">
         <f t="shared" si="2"/>
-        <v>5.0714285714289815</v>
-      </c>
-      <c r="H14" s="43">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="36">
-        <f xml:space="preserve"> -(G14*PCT)</f>
-        <v>-1.2678571428572454</v>
-      </c>
-      <c r="J14" s="36">
-        <f xml:space="preserve"> -(H14*PCT)</f>
-        <v>-0.125</v>
-      </c>
-      <c r="K14" s="54">
-        <f t="shared" si="0"/>
         <v>-1.1428571428572454</v>
       </c>
       <c r="L14" s="36">
         <v>-0.7</v>
       </c>
       <c r="M14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.44285714285724542</v>
       </c>
       <c r="N14" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11573,45 +11858,45 @@
         <v>234.6</v>
       </c>
       <c r="F15" s="41">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="4"/>
+        <v>6.8285714285709957</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="5"/>
+        <v>-6.1571428571419915</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.7071428571427489</v>
+      </c>
+      <c r="J15" s="36">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="G15" s="42">
+        <v>1.5392857142854979</v>
+      </c>
+      <c r="K15" s="54">
         <f t="shared" si="2"/>
-        <v>6.8285714285709957</v>
-      </c>
-      <c r="H15" s="43">
-        <f t="shared" si="3"/>
-        <v>-6.1571428571419915</v>
-      </c>
-      <c r="I15" s="36">
-        <f xml:space="preserve"> -(G15*PCT)</f>
-        <v>-1.7071428571427489</v>
-      </c>
-      <c r="J15" s="36">
-        <f xml:space="preserve"> -(H15*PCT)</f>
-        <v>1.5392857142854979</v>
-      </c>
-      <c r="K15" s="54">
-        <f t="shared" si="0"/>
         <v>-3.2464285714282468</v>
       </c>
       <c r="L15" s="36">
         <v>0.8</v>
       </c>
       <c r="M15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.0464285714282466</v>
       </c>
       <c r="N15" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O15">
         <v>-1</v>
       </c>
       <c r="P15" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -11632,42 +11917,42 @@
         <v>225.6</v>
       </c>
       <c r="F16" s="41">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="4"/>
+        <v>12.257142857142981</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="5"/>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="0"/>
+        <v>-3.0642857142857451</v>
+      </c>
+      <c r="J16" s="36">
         <f t="shared" si="1"/>
-        <v>4.4000000000000057</v>
-      </c>
-      <c r="G16" s="42">
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="K16" s="54">
         <f t="shared" si="2"/>
-        <v>12.257142857142981</v>
-      </c>
-      <c r="H16" s="43">
-        <f t="shared" si="3"/>
-        <v>-4.4000000000000057</v>
-      </c>
-      <c r="I16" s="36">
-        <f xml:space="preserve"> -(G16*PCT)</f>
-        <v>-3.0642857142857451</v>
-      </c>
-      <c r="J16" s="36">
-        <f xml:space="preserve"> -(H16*PCT)</f>
-        <v>1.1000000000000014</v>
-      </c>
-      <c r="K16" s="54">
-        <f t="shared" si="0"/>
         <v>-4.1642857142857466</v>
       </c>
       <c r="L16" s="36">
         <v>-3.7</v>
       </c>
       <c r="M16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.46428571428574639</v>
       </c>
       <c r="N16" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R16" t="s">
@@ -11691,42 +11976,42 @@
         <v>231.7</v>
       </c>
       <c r="F17" s="41">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>9.2142857142859782</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="5"/>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" si="0"/>
+        <v>-2.3035714285714946</v>
+      </c>
+      <c r="J17" s="36">
         <f t="shared" si="1"/>
-        <v>5.5999999999999943</v>
-      </c>
-      <c r="G17" s="42">
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="K17" s="54">
         <f t="shared" si="2"/>
-        <v>9.2142857142859782</v>
-      </c>
-      <c r="H17" s="43">
-        <f t="shared" si="3"/>
-        <v>-5.5999999999999943</v>
-      </c>
-      <c r="I17" s="36">
-        <f xml:space="preserve"> -(G17*PCT)</f>
-        <v>-2.3035714285714946</v>
-      </c>
-      <c r="J17" s="36">
-        <f xml:space="preserve"> -(H17*PCT)</f>
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="K17" s="54">
-        <f t="shared" si="0"/>
         <v>-3.7035714285714931</v>
       </c>
       <c r="L17" s="36">
         <v>-0.2</v>
       </c>
       <c r="M17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.503571428571493</v>
       </c>
       <c r="N17" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11747,23 +12032,23 @@
         <v>223</v>
       </c>
       <c r="F18" s="41">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.6000000000000227</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="J18" s="36">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G18" s="42">
-        <f t="shared" si="2"/>
-        <v>4.8000000000000114</v>
-      </c>
-      <c r="H18" s="43">
-        <f t="shared" si="3"/>
-        <v>-3.6000000000000227</v>
-      </c>
-      <c r="I18" s="36">
-        <f xml:space="preserve"> -(G18*PCT)</f>
-        <v>-1.2000000000000028</v>
-      </c>
-      <c r="J18" s="36">
-        <f xml:space="preserve"> -(H18*PCT)</f>
         <v>0.90000000000000568</v>
       </c>
       <c r="K18" s="54">
@@ -11774,15 +12059,15 @@
         <v>-3.3</v>
       </c>
       <c r="M18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1999999999999913</v>
       </c>
       <c r="N18" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -11803,42 +12088,42 @@
         <v>232</v>
       </c>
       <c r="F19" s="41">
+        <f t="shared" si="3"/>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="4"/>
+        <v>2.6571428571429863</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="5"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.66428571428574656</v>
+      </c>
+      <c r="J19" s="36">
         <f t="shared" si="1"/>
-        <v>-2.9000000000000057</v>
-      </c>
-      <c r="G19" s="42">
-        <f t="shared" si="2"/>
-        <v>2.6571428571429863</v>
-      </c>
-      <c r="H19" s="43">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000057</v>
-      </c>
-      <c r="I19" s="36">
-        <f xml:space="preserve"> -(G19*PCT)</f>
-        <v>-0.66428571428574656</v>
-      </c>
-      <c r="J19" s="36">
-        <f xml:space="preserve"> -(H19*PCT)</f>
         <v>-0.72500000000000142</v>
       </c>
       <c r="K19" s="54">
-        <f t="shared" ref="K19:K32" si="8">IF(I19&lt;0, I19-J19,I19+J19)</f>
+        <f t="shared" ref="K19:K32" si="10">IF(I19&lt;0, I19-J19,I19+J19)</f>
         <v>6.0714285714254856E-2</v>
       </c>
       <c r="L19" s="36">
         <v>1.1000000000000001</v>
       </c>
       <c r="M19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.0392857142857452</v>
       </c>
       <c r="N19" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11859,42 +12144,42 @@
         <v>224.7</v>
       </c>
       <c r="F20" s="41">
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.875</v>
+      </c>
+      <c r="J20" s="36">
         <f t="shared" si="1"/>
-        <v>-1.4000000000000057</v>
-      </c>
-      <c r="G20" s="42">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="H20" s="43">
-        <f t="shared" si="3"/>
-        <v>1.4000000000000057</v>
-      </c>
-      <c r="I20" s="36">
-        <f xml:space="preserve"> -(G20*PCT)</f>
-        <v>-0.875</v>
-      </c>
-      <c r="J20" s="36">
-        <f xml:space="preserve"> -(H20*PCT)</f>
         <v>-0.35000000000000142</v>
       </c>
       <c r="K20" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.52499999999999858</v>
       </c>
       <c r="L20" s="36">
         <v>-0.1</v>
       </c>
       <c r="M20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.4249999999999986</v>
       </c>
       <c r="N20" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11915,42 +12200,42 @@
         <v>238.1</v>
       </c>
       <c r="F21" s="41">
-        <f t="shared" si="1"/>
-        <v>5.7999999999999829</v>
-      </c>
-      <c r="G21" s="42">
-        <f t="shared" si="2"/>
-        <v>-10.385714285714016</v>
-      </c>
-      <c r="H21" s="43">
         <f t="shared" si="3"/>
         <v>5.7999999999999829</v>
       </c>
+      <c r="G21" s="42">
+        <f t="shared" si="4"/>
+        <v>-10.385714285714016</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="5"/>
+        <v>5.7999999999999829</v>
+      </c>
       <c r="I21" s="36">
-        <f xml:space="preserve"> -(G21*PCT)</f>
+        <f t="shared" si="0"/>
         <v>2.596428571428504</v>
       </c>
       <c r="J21" s="36">
-        <f xml:space="preserve"> -(H21*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-1.4499999999999957</v>
       </c>
       <c r="K21" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1464285714285083</v>
       </c>
       <c r="L21" s="36">
         <v>1.4</v>
       </c>
       <c r="M21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.25357142857149162</v>
       </c>
       <c r="N21" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -11971,42 +12256,42 @@
         <v>220.4</v>
       </c>
       <c r="F22" s="41">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="4"/>
+        <v>5.7142857142991943E-2</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="5"/>
+        <v>2.6857142857140275</v>
+      </c>
+      <c r="I22" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.4285714285747986E-2</v>
+      </c>
+      <c r="J22" s="36">
         <f t="shared" si="1"/>
-        <v>2.8000000000000114</v>
-      </c>
-      <c r="G22" s="42">
-        <f t="shared" si="2"/>
-        <v>5.7142857142991943E-2</v>
-      </c>
-      <c r="H22" s="43">
-        <f t="shared" si="3"/>
-        <v>2.6857142857140275</v>
-      </c>
-      <c r="I22" s="36">
-        <f xml:space="preserve"> -(G22*PCT)</f>
-        <v>-1.4285714285747986E-2</v>
-      </c>
-      <c r="J22" s="36">
-        <f xml:space="preserve"> -(H22*PCT)</f>
         <v>-0.67142857142850687</v>
       </c>
       <c r="K22" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.65714285714275888</v>
       </c>
       <c r="L22" s="36">
         <v>-0.9</v>
       </c>
       <c r="M22" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5571428571427588</v>
       </c>
       <c r="N22" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12027,42 +12312,42 @@
         <v>221.2</v>
       </c>
       <c r="F23" s="41">
+        <f t="shared" si="3"/>
+        <v>-3.7000000000000171</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="4"/>
+        <v>4.7142857142859782</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="5"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="I23" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.1785714285714946</v>
+      </c>
+      <c r="J23" s="36">
         <f t="shared" si="1"/>
-        <v>-3.7000000000000171</v>
-      </c>
-      <c r="G23" s="42">
-        <f t="shared" si="2"/>
-        <v>4.7142857142859782</v>
-      </c>
-      <c r="H23" s="43">
-        <f t="shared" si="3"/>
-        <v>3.7000000000000171</v>
-      </c>
-      <c r="I23" s="36">
-        <f xml:space="preserve"> -(G23*PCT)</f>
-        <v>-1.1785714285714946</v>
-      </c>
-      <c r="J23" s="36">
-        <f xml:space="preserve"> -(H23*PCT)</f>
         <v>-0.92500000000000426</v>
       </c>
       <c r="K23" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.25357142857149029</v>
       </c>
       <c r="L23" s="36">
         <v>-1.7</v>
       </c>
       <c r="M23" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4464285714285097</v>
       </c>
       <c r="N23" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12083,42 +12368,42 @@
         <v>219.6</v>
       </c>
       <c r="F24" s="41">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999829</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" si="4"/>
+        <v>4.9714285714289872</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="5"/>
+        <v>-2.2999999999999829</v>
+      </c>
+      <c r="I24" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.2428571428572468</v>
+      </c>
+      <c r="J24" s="36">
         <f t="shared" si="1"/>
-        <v>2.2999999999999829</v>
-      </c>
-      <c r="G24" s="42">
-        <f t="shared" si="2"/>
-        <v>4.9714285714289872</v>
-      </c>
-      <c r="H24" s="43">
-        <f t="shared" si="3"/>
-        <v>-2.2999999999999829</v>
-      </c>
-      <c r="I24" s="36">
-        <f xml:space="preserve"> -(G24*PCT)</f>
-        <v>-1.2428571428572468</v>
-      </c>
-      <c r="J24" s="36">
-        <f xml:space="preserve"> -(H24*PCT)</f>
         <v>0.57499999999999574</v>
       </c>
       <c r="K24" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.8178571428572425</v>
       </c>
       <c r="L24" s="36">
         <v>-1.2</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.61785714285724258</v>
       </c>
       <c r="N24" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12139,42 +12424,42 @@
         <v>227.1</v>
       </c>
       <c r="F25" s="41">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="G25" s="42">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.6000000000000227</v>
+      </c>
+      <c r="I25" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.47500000000000142</v>
+      </c>
+      <c r="J25" s="36">
         <f t="shared" si="1"/>
-        <v>2.1999999999999886</v>
-      </c>
-      <c r="G25" s="42">
-        <f t="shared" si="2"/>
-        <v>1.9000000000000057</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.6000000000000227</v>
-      </c>
-      <c r="I25" s="36">
-        <f xml:space="preserve"> -(G25*PCT)</f>
-        <v>-0.47500000000000142</v>
-      </c>
-      <c r="J25" s="36">
-        <f xml:space="preserve"> -(H25*PCT)</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="K25" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.87500000000000711</v>
       </c>
       <c r="L25" s="36">
         <v>-0.2</v>
       </c>
       <c r="M25" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.67500000000000715</v>
       </c>
       <c r="N25" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12195,45 +12480,45 @@
         <v>233.7</v>
       </c>
       <c r="F26" s="41">
+        <f t="shared" si="3"/>
+        <v>9.7999999999999829</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="4"/>
+        <v>5.6428571428569967</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.4857142857140104</v>
+      </c>
+      <c r="I26" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.4107142857142492</v>
+      </c>
+      <c r="J26" s="36">
         <f t="shared" si="1"/>
-        <v>9.7999999999999829</v>
-      </c>
-      <c r="G26" s="42">
-        <f t="shared" si="2"/>
-        <v>5.6428571428569967</v>
-      </c>
-      <c r="H26" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.4857142857140104</v>
-      </c>
-      <c r="I26" s="36">
-        <f xml:space="preserve"> -(G26*PCT)</f>
-        <v>-1.4107142857142492</v>
-      </c>
-      <c r="J26" s="36">
-        <f xml:space="preserve"> -(H26*PCT)</f>
         <v>0.37142857142850261</v>
       </c>
       <c r="K26" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.7821428571427518</v>
       </c>
       <c r="L26" s="36">
         <v>-1.4</v>
       </c>
       <c r="M26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.38214285714275187</v>
       </c>
       <c r="N26" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O26">
         <v>-1</v>
       </c>
       <c r="P26" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12254,42 +12539,42 @@
         <v>234.7</v>
       </c>
       <c r="F27" s="41">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="4"/>
+        <v>7.6428571428569967</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="I27" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.9107142857142492</v>
+      </c>
+      <c r="J27" s="36">
         <f t="shared" si="1"/>
-        <v>3.0999999999999943</v>
-      </c>
-      <c r="G27" s="42">
-        <f t="shared" si="2"/>
-        <v>7.6428571428569967</v>
-      </c>
-      <c r="H27" s="43">
-        <f t="shared" si="3"/>
-        <v>-3.0999999999999943</v>
-      </c>
-      <c r="I27" s="36">
-        <f xml:space="preserve"> -(G27*PCT)</f>
-        <v>-1.9107142857142492</v>
-      </c>
-      <c r="J27" s="36">
-        <f xml:space="preserve"> -(H27*PCT)</f>
         <v>0.77499999999999858</v>
       </c>
       <c r="K27" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.6857142857142478</v>
       </c>
       <c r="L27" s="36">
         <v>-0.7</v>
       </c>
       <c r="M27" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.9857142857142478</v>
       </c>
       <c r="N27" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12310,42 +12595,42 @@
         <v>225.7</v>
       </c>
       <c r="F28" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.64285714285702511</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16071428571425628</v>
+      </c>
+      <c r="J28" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="42">
-        <f t="shared" si="2"/>
-        <v>-0.64285714285702511</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="36">
-        <f xml:space="preserve"> -(G28*PCT)</f>
-        <v>0.16071428571425628</v>
-      </c>
-      <c r="J28" s="36">
-        <f xml:space="preserve"> -(H28*PCT)</f>
-        <v>0</v>
-      </c>
       <c r="K28" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16071428571425628</v>
       </c>
       <c r="L28" s="36">
         <v>-0.5</v>
       </c>
       <c r="M28" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66071428571425628</v>
       </c>
       <c r="N28" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12366,42 +12651,42 @@
         <v>229.9</v>
       </c>
       <c r="F29" s="41">
-        <f t="shared" si="1"/>
-        <v>-4.2999999999999829</v>
-      </c>
-      <c r="G29" s="42">
-        <f t="shared" si="2"/>
-        <v>-12.871428571428993</v>
-      </c>
-      <c r="H29" s="43">
         <f t="shared" si="3"/>
         <v>-4.2999999999999829</v>
       </c>
+      <c r="G29" s="42">
+        <f t="shared" si="4"/>
+        <v>-12.871428571428993</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="5"/>
+        <v>-4.2999999999999829</v>
+      </c>
       <c r="I29" s="36">
-        <f xml:space="preserve"> -(G29*PCT)</f>
+        <f t="shared" si="0"/>
         <v>3.2178571428572482</v>
       </c>
       <c r="J29" s="36">
-        <f xml:space="preserve"> -(H29*PCT)</f>
+        <f t="shared" si="1"/>
         <v>1.0749999999999957</v>
       </c>
       <c r="K29" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.292857142857244</v>
       </c>
       <c r="L29" s="36">
         <v>4.7</v>
       </c>
       <c r="M29" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.40714285714275622</v>
       </c>
       <c r="N29" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12422,42 +12707,42 @@
         <v>229</v>
       </c>
       <c r="F30" s="41">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="4"/>
+        <v>14.228571428571001</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" si="5"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="I30" s="36">
+        <f t="shared" si="0"/>
+        <v>-3.5571428571427504</v>
+      </c>
+      <c r="J30" s="36">
         <f t="shared" si="1"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="G30" s="42">
-        <f t="shared" si="2"/>
-        <v>14.228571428571001</v>
-      </c>
-      <c r="H30" s="43">
-        <f t="shared" si="3"/>
-        <v>-1.8000000000000114</v>
-      </c>
-      <c r="I30" s="36">
-        <f xml:space="preserve"> -(G30*PCT)</f>
-        <v>-3.5571428571427504</v>
-      </c>
-      <c r="J30" s="36">
-        <f xml:space="preserve"> -(H30*PCT)</f>
         <v>0.45000000000000284</v>
       </c>
       <c r="K30" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0071428571427532</v>
       </c>
       <c r="L30" s="36">
         <v>-2.6</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.4071428571427531</v>
       </c>
       <c r="N30" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q30" t="s">
@@ -12490,45 +12775,45 @@
         <v>232.8</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="G31" s="42">
-        <f t="shared" si="2"/>
-        <v>-0.82857142857099575</v>
-      </c>
-      <c r="H31" s="43">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
+      <c r="G31" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.82857142857099575</v>
+      </c>
+      <c r="H31" s="43">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
       <c r="I31" s="36">
-        <f xml:space="preserve"> -(G31*PCT)</f>
+        <f t="shared" si="0"/>
         <v>0.20714285714274894</v>
       </c>
       <c r="J31" s="36">
-        <f xml:space="preserve"> -(H31*PCT)</f>
+        <f t="shared" si="1"/>
         <v>-1.875</v>
       </c>
       <c r="K31" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.6678571428572511</v>
       </c>
       <c r="L31" s="36">
         <v>0.1</v>
       </c>
       <c r="M31" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.7678571428572512</v>
       </c>
       <c r="N31" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O31">
         <v>-0.5</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q31" s="5">
@@ -12561,42 +12846,42 @@
         <v>222.5</v>
       </c>
       <c r="F32" s="44">
-        <f t="shared" si="1"/>
-        <v>-11.199999999999989</v>
-      </c>
-      <c r="G32" s="45">
-        <f t="shared" si="2"/>
-        <v>-12.271428571428999</v>
-      </c>
-      <c r="H32" s="46">
         <f t="shared" si="3"/>
         <v>-11.199999999999989</v>
       </c>
+      <c r="G32" s="45">
+        <f t="shared" si="4"/>
+        <v>-12.271428571428999</v>
+      </c>
+      <c r="H32" s="46">
+        <f t="shared" si="5"/>
+        <v>-11.199999999999989</v>
+      </c>
       <c r="I32" s="36">
-        <f xml:space="preserve"> -(G32*PCT)</f>
+        <f t="shared" si="0"/>
         <v>3.0678571428572496</v>
       </c>
       <c r="J32" s="36">
-        <f xml:space="preserve"> -(H32*PCT)</f>
+        <f t="shared" si="1"/>
         <v>2.7999999999999972</v>
       </c>
       <c r="K32" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8678571428572468</v>
       </c>
       <c r="L32" s="36">
         <v>3.1</v>
       </c>
       <c r="M32" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7678571428572467</v>
       </c>
       <c r="N32" s="36" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q32" s="5">
@@ -12614,23 +12899,23 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
-        <f t="shared" ref="C33" si="9">AVERAGE(C3:C32)</f>
+        <f t="shared" ref="C33" si="11">AVERAGE(C3:C32)</f>
         <v>226.20476190476185</v>
       </c>
       <c r="D33" s="37">
-        <f t="shared" ref="D33" si="10">AVERAGE(D3:D32)</f>
+        <f t="shared" ref="D33" si="12">AVERAGE(D3:D32)</f>
         <v>226.23333333333329</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" ref="E33" si="11">AVERAGE(E3:E32)</f>
+        <f t="shared" ref="E33" si="13">AVERAGE(E3:E32)</f>
         <v>227.10333333333332</v>
       </c>
       <c r="F33" s="37">
-        <f t="shared" ref="F33:G33" si="12">AVERAGE(F3:F32)</f>
+        <f t="shared" ref="F33:G33" si="14">AVERAGE(F3:F32)</f>
         <v>0.86999999999999889</v>
       </c>
       <c r="G33" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89857142857146166</v>
       </c>
       <c r="H33" s="37">
@@ -12667,15 +12952,15 @@
         <v>222.54086797947701</v>
       </c>
       <c r="F35" s="44">
-        <f t="shared" ref="F35" si="13">E35-D35</f>
+        <f t="shared" ref="F35" si="15">E35-D35</f>
         <v>-11.173417734808993</v>
       </c>
       <c r="G35" s="45">
-        <f t="shared" ref="G35" si="14">E35-C35</f>
+        <f t="shared" ref="G35" si="16">E35-C35</f>
         <v>-11.630560591951991</v>
       </c>
       <c r="H35" s="46">
-        <f t="shared" ref="H35" si="15" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
+        <f t="shared" ref="H35" si="17" xml:space="preserve"> ABS(D35-C35) - ABS(E35-C35)</f>
         <v>-11.173417734808993</v>
       </c>
       <c r="I35" s="36">
@@ -12694,7 +12979,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
       <c r="P35" t="str">
-        <f t="shared" ref="P35" si="16">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
+        <f t="shared" ref="P35" si="18">IF(OR( AND( D35&lt;C35, E35&gt;C35), AND(D35&gt;C35, E35&lt;C35)) = FALSE, " ", TRUE)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
